--- a/backend/src/excel_handler/files/CEPU.xlsx
+++ b/backend/src/excel_handler/files/CEPU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16351297.63</v>
+        <v>41914117.87</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>563837.85</v>
+        <v>838282.36</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1032452.98</v>
+        <v>1122332.31</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>505335.86</v>
+        <v>506008.72</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1248089.48</v>
+        <v>1248017.49</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>970765.5699999999</v>
+        <v>970549.79</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>222526.05</v>
+        <v>222591.42</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2226159.1</v>
+        <v>2226898.9</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>995348.4300000001</v>
+        <v>995264.5600000001</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1298483.12</v>
+        <v>1284660.76</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>642513.52</v>
+        <v>637853.4300000001</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>576211.38</v>
+        <v>546125.84</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>890914.64</v>
+        <v>891272.22</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>352361.87</v>
+        <v>352479.15</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1192992.13</v>
+        <v>1192730.09</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>245547.25</v>
+        <v>245827.99</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>723978.24</v>
+        <v>707964.63</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>769308.0600000001</v>
+        <v>759679.42</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>324079.65</v>
+        <v>324111.54</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>520037.52</v>
+        <v>520464.6</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>163157.61</v>
+        <v>163155.89</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>112037.16</v>
+        <v>120050.06</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>201271.46</v>
+        <v>201241.81</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>210386.79</v>
+        <v>182349.16</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>403751.96</v>
+        <v>492445.19</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>117757.37</v>
+        <v>117832.39</v>
       </c>
     </row>
     <row r="28">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>39210.95</v>
+        <v>39220.56</v>
       </c>
     </row>
     <row r="29">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>98918.47</v>
+        <v>98952.17</v>
       </c>
     </row>
     <row r="30">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>132569.11</v>
+        <v>132537.85</v>
       </c>
     </row>
     <row r="31">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>25844.85</v>
+        <v>25857.38</v>
       </c>
     </row>
     <row r="32">
@@ -747,7 +747,217 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109287.05</v>
+        <v>109430.74</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>CMA acciones</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>525682.24</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>213490.91</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Delta inter</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>7492.18</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Delta Latam</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>15993.62</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Delta Recursos</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1848691.27</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2057799.46</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>130977.47</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>101864.42</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Superfondo</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>3753082.64</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>26927.03</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>896341.9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>698547.6899999999</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta ex Mercosur</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>29046.61</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Supergestion</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1128585.7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta acciones</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>11802.92</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Compass Crecim</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2140831.08</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>24218.51</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>25857.38</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Schroeder RV</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2096920.9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>3814403.48</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Galileo</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>5927654.4</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CEPU.xlsx
+++ b/backend/src/excel_handler/files/CEPU.xlsx
@@ -833,7 +833,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Superfondo</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B41" t="n">

--- a/backend/src/excel_handler/files/CEPU.xlsx
+++ b/backend/src/excel_handler/files/CEPU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,278 +436,362 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41914117.87</v>
+        <v>531512.36</v>
+      </c>
+      <c r="C2" t="n">
+        <v>579804.47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>838282.36</v>
+        <v>1159025.87</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1125849.18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1122332.31</v>
+        <v>117788.42</v>
+      </c>
+      <c r="C4" t="n">
+        <v>117739.51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506008.72</v>
+        <v>201160.73</v>
+      </c>
+      <c r="C5" t="n">
+        <v>212982.03</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1248017.49</v>
+        <v>505964.21</v>
+      </c>
+      <c r="C6" t="n">
+        <v>505817.74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>970549.79</v>
+        <v>1248772.51</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1247657.65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>222591.42</v>
+        <v>26923.17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>26848.79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2226898.9</v>
+        <v>899531.12</v>
+      </c>
+      <c r="C9" t="n">
+        <v>898923.75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>995264.5600000001</v>
+        <v>39185.98</v>
+      </c>
+      <c r="C10" t="n">
+        <v>37353.64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1284660.76</v>
+        <v>11797.57</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11805.46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>637853.4300000001</v>
+        <v>29011.95</v>
+      </c>
+      <c r="C12" t="n">
+        <v>28991.39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>546125.84</v>
+        <v>970448.12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1092459.64</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>891272.22</v>
-      </c>
+        <v>234582.62</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>352479.15</v>
+        <v>525177.3100000001</v>
+      </c>
+      <c r="C15" t="n">
+        <v>540524.3100000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Compass Crecim</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1192730.09</v>
+        <v>2128574.97</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2111027.88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>245827.99</v>
+        <v>2224219.38</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2224279.86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>707964.63</v>
+        <v>995715.4399999999</v>
+      </c>
+      <c r="C18" t="n">
+        <v>995074.59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta Latam</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759679.42</v>
+        <v>15997.27</v>
+      </c>
+      <c r="C19" t="n">
+        <v>16001.67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Delta Recursos</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>324111.54</v>
+        <v>1848803.38</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1849616.67</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>520464.6</v>
+        <v>2056781.92</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2056160.31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>163155.89</v>
+        <v>237556.38</v>
+      </c>
+      <c r="C22" t="n">
+        <v>237529.61</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>120050.06</v>
+        <v>697809.53</v>
+      </c>
+      <c r="C23" t="n">
+        <v>697652.6899999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Delta inter</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>201241.81</v>
+        <v>7498.74</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7507.43</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>182349.16</v>
+        <v>764740.78</v>
+      </c>
+      <c r="C25" t="n">
+        <v>837093.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>492445.19</v>
+        <v>766816.51</v>
+      </c>
+      <c r="C26" t="n">
+        <v>823407.99</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>117832.39</v>
+        <v>1299939.38</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1343412.19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>39220.56</v>
+        <v>623942.26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>622840.87</v>
       </c>
     </row>
     <row r="29">
@@ -717,247 +801,320 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>98952.17</v>
+        <v>98767.83</v>
+      </c>
+      <c r="C29" t="n">
+        <v>99230.78999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>132537.85</v>
+          <t>Galileo</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="n">
+        <v>6080452.74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>25857.38</v>
+        <v>132656.06</v>
+      </c>
+      <c r="C31" t="n">
+        <v>132530.34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109430.74</v>
+        <v>24183.88</v>
+      </c>
+      <c r="C32" t="n">
+        <v>24222.87</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>525682.24</v>
+        <v>515684.63</v>
+      </c>
+      <c r="C33" t="n">
+        <v>501205.92</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>213490.91</v>
+        <v>890504.14</v>
+      </c>
+      <c r="C34" t="n">
+        <v>890426.16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7492.18</v>
+        <v>126698.6</v>
+      </c>
+      <c r="C35" t="n">
+        <v>120674.03</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>15993.62</v>
+        <v>25847.62</v>
+      </c>
+      <c r="C36" t="n">
+        <v>35433.55</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1848691.27</v>
+        <v>25847.62</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35433.55</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2057799.46</v>
+        <v>141004.13</v>
+      </c>
+      <c r="C38" t="n">
+        <v>146018.28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>130977.47</v>
+        <v>101944.42</v>
+      </c>
+      <c r="C39" t="n">
+        <v>101939.35</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>101864.42</v>
+        <v>109335.23</v>
+      </c>
+      <c r="C40" t="n">
+        <v>109322.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3753082.64</v>
+        <v>323697.78</v>
+      </c>
+      <c r="C41" t="n">
+        <v>323614.49</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>26927.03</v>
+        <v>520455.46</v>
+      </c>
+      <c r="C42" t="n">
+        <v>752391.42</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>896341.9</v>
+        <v>182317.91</v>
+      </c>
+      <c r="C43" t="n">
+        <v>182433.71</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>698547.6899999999</v>
+        <v>352789.07</v>
+      </c>
+      <c r="C44" t="n">
+        <v>352786.47</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>29046.61</v>
+        <v>245748.44</v>
+      </c>
+      <c r="C45" t="n">
+        <v>245597.84</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1128585.7</v>
+        <v>1192345.42</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1281351.12</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>11802.92</v>
+        <v>2236809.44</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2237061.58</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2140831.08</v>
+        <v>3816255.48</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3815299.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>24218.51</v>
+        <v>3752060.88</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3751419.83</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>25857.38</v>
+        <v>887679.4300000001</v>
+      </c>
+      <c r="C50" t="n">
+        <v>844626.27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2096920.9</v>
+        <v>158482.51</v>
+      </c>
+      <c r="C51" t="n">
+        <v>158599.93</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3814403.48</v>
+        <v>735314.16</v>
+      </c>
+      <c r="C52" t="n">
+        <v>866743.58</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Galileo</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>5927654.4</v>
+        <v>36030393.86</v>
+      </c>
+      <c r="C53" t="n">
+        <v>42470435.26</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CEPU.xlsx
+++ b/backend/src/excel_handler/files/CEPU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,673 +443,521 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>531512.36</v>
-      </c>
-      <c r="C2" t="n">
-        <v>579804.47</v>
+        <v>43156837.09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1159025.87</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1125849.18</v>
+        <v>863136.74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117788.42</v>
-      </c>
-      <c r="C4" t="n">
-        <v>117739.51</v>
+        <v>579804.47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>201160.73</v>
-      </c>
-      <c r="C5" t="n">
-        <v>212982.03</v>
+        <v>1125849.18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>505964.21</v>
-      </c>
-      <c r="C6" t="n">
-        <v>505817.74</v>
+        <v>117739.51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1248772.51</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1247657.65</v>
+        <v>212982.03</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26923.17</v>
-      </c>
-      <c r="C8" t="n">
-        <v>26848.79</v>
+        <v>505817.74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>899531.12</v>
-      </c>
-      <c r="C9" t="n">
-        <v>898923.75</v>
+        <v>1247657.65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Alpha Recursos Naturales</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>39185.98</v>
-      </c>
-      <c r="C10" t="n">
-        <v>37353.64</v>
+        <v>487183.81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11797.57</v>
-      </c>
-      <c r="C11" t="n">
-        <v>11805.46</v>
+        <v>26848.79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>29011.95</v>
-      </c>
-      <c r="C12" t="n">
-        <v>28991.39</v>
+        <v>898923.75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>970448.12</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1092459.64</v>
+        <v>37353.64</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>234582.62</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>11805.46</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>525177.3100000001</v>
-      </c>
-      <c r="C15" t="n">
-        <v>540524.3100000001</v>
+        <v>28991.39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2128574.97</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2111027.88</v>
+        <v>1092459.64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2224219.38</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2224279.86</v>
+        <v>234651.57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>995715.4399999999</v>
-      </c>
-      <c r="C18" t="n">
-        <v>995074.59</v>
+        <v>540524.3100000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15997.27</v>
-      </c>
-      <c r="C19" t="n">
-        <v>16001.67</v>
+        <v>2111027.88</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1848803.38</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1849616.67</v>
+        <v>2224279.86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2056781.92</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2056160.31</v>
+        <v>995074.59</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>237556.38</v>
-      </c>
-      <c r="C22" t="n">
         <v>237529.61</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>697809.53</v>
-      </c>
-      <c r="C23" t="n">
-        <v>697652.6899999999</v>
+        <v>7507.43</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7498.74</v>
-      </c>
-      <c r="C24" t="n">
-        <v>7507.43</v>
+        <v>16001.67</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>764740.78</v>
-      </c>
-      <c r="C25" t="n">
-        <v>837093.1</v>
+        <v>1849616.67</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>766816.51</v>
-      </c>
-      <c r="C26" t="n">
-        <v>823407.99</v>
+        <v>2056160.31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1299939.38</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1343412.19</v>
+        <v>697652.6899999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>623942.26</v>
-      </c>
-      <c r="C28" t="n">
-        <v>622840.87</v>
+        <v>837093.1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>98767.83</v>
-      </c>
-      <c r="C29" t="n">
-        <v>99230.78999999999</v>
+        <v>823407.99</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Galileo</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="n">
-        <v>6080452.74</v>
+          <t>Fima Acciones</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1343412.19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132656.06</v>
-      </c>
-      <c r="C31" t="n">
-        <v>132530.34</v>
+        <v>622840.87</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>24183.88</v>
-      </c>
-      <c r="C32" t="n">
-        <v>24222.87</v>
+        <v>99230.78999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>515684.63</v>
-      </c>
-      <c r="C33" t="n">
-        <v>501205.92</v>
+        <v>6080452.74</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>890504.14</v>
-      </c>
-      <c r="C34" t="n">
-        <v>890426.16</v>
+        <v>132530.34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>126698.6</v>
-      </c>
-      <c r="C35" t="n">
-        <v>120674.03</v>
+        <v>24222.87</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>25847.62</v>
-      </c>
-      <c r="C36" t="n">
-        <v>35433.55</v>
+        <v>501205.92</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>25847.62</v>
-      </c>
-      <c r="C37" t="n">
-        <v>35433.55</v>
+        <v>890426.16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141004.13</v>
-      </c>
-      <c r="C38" t="n">
-        <v>146018.28</v>
+        <v>120674.03</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>101944.42</v>
-      </c>
-      <c r="C39" t="n">
-        <v>101939.35</v>
+        <v>35433.55</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>109335.23</v>
-      </c>
-      <c r="C40" t="n">
-        <v>109322.8</v>
+        <v>146018.28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>323697.78</v>
-      </c>
-      <c r="C41" t="n">
-        <v>323614.49</v>
+        <v>101939.35</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>520455.46</v>
-      </c>
-      <c r="C42" t="n">
-        <v>752391.42</v>
+        <v>109322.8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>182317.91</v>
-      </c>
-      <c r="C43" t="n">
-        <v>182433.71</v>
+        <v>323614.49</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>352789.07</v>
-      </c>
-      <c r="C44" t="n">
-        <v>352786.47</v>
+        <v>752391.42</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>245748.44</v>
-      </c>
-      <c r="C45" t="n">
-        <v>245597.84</v>
+        <v>182433.71</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1192345.42</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1281351.12</v>
+        <v>352786.47</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2236809.44</v>
-      </c>
-      <c r="C47" t="n">
-        <v>2237061.58</v>
+        <v>245597.84</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3816255.48</v>
-      </c>
-      <c r="C48" t="n">
-        <v>3815299.8</v>
+        <v>1281351.12</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3752060.88</v>
-      </c>
-      <c r="C49" t="n">
-        <v>3751419.83</v>
+        <v>2237061.58</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>887679.4300000001</v>
-      </c>
-      <c r="C50" t="n">
-        <v>844626.27</v>
+        <v>3815299.8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>158482.51</v>
-      </c>
-      <c r="C51" t="n">
-        <v>158599.93</v>
+        <v>3751419.83</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>735314.16</v>
-      </c>
-      <c r="C52" t="n">
-        <v>866743.58</v>
+        <v>844626.27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>36030393.86</v>
-      </c>
-      <c r="C53" t="n">
-        <v>42470435.26</v>
+        <v>158599.93</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CEPU.xlsx
+++ b/backend/src/excel_handler/files/CEPU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,525 +439,662 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43156837.09</v>
+        <v>579804.47</v>
+      </c>
+      <c r="C2" t="n">
+        <v>615125.1800000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>863136.74</v>
+        <v>1125849.18</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1125857.31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>579804.47</v>
+        <v>117739.51</v>
+      </c>
+      <c r="C4" t="n">
+        <v>127982.88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1125849.18</v>
+        <v>212982.03</v>
+      </c>
+      <c r="C5" t="n">
+        <v>212925.38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>117739.51</v>
+        <v>505817.74</v>
+      </c>
+      <c r="C6" t="n">
+        <v>505965.04</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>212982.03</v>
+        <v>1247657.65</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1248017.56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Recursos Naturales</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>505817.74</v>
+        <v>487183.81</v>
+      </c>
+      <c r="C8" t="n">
+        <v>542205.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1247657.65</v>
+        <v>26848.79</v>
+      </c>
+      <c r="C9" t="n">
+        <v>26952.41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha Recursos Naturales</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>487183.81</v>
+        <v>898923.75</v>
+      </c>
+      <c r="C10" t="n">
+        <v>901326.49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26848.79</v>
+        <v>37353.64</v>
+      </c>
+      <c r="C11" t="n">
+        <v>37364.61</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>898923.75</v>
+        <v>11805.46</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11801.98</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37353.64</v>
+        <v>28991.39</v>
+      </c>
+      <c r="C13" t="n">
+        <v>29005.93</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11805.46</v>
+        <v>1092459.64</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1092300.83</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28991.39</v>
+        <v>234651.57</v>
+      </c>
+      <c r="C15" t="n">
+        <v>255256.87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1092459.64</v>
+        <v>540524.3100000001</v>
+      </c>
+      <c r="C16" t="n">
+        <v>507065.21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>234651.57</v>
+        <v>2111027.88</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2090732.48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>540524.3100000001</v>
-      </c>
+        <v>2224279.86</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2111027.88</v>
-      </c>
+        <v>995074.59</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2224279.86</v>
-      </c>
+        <v>237529.61</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>995074.59</v>
-      </c>
+        <v>7507.43</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>237529.61</v>
-      </c>
+        <v>16001.67</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7507.43</v>
-      </c>
+        <v>1849616.67</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>16001.67</v>
-      </c>
+        <v>2056160.31</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1849616.67</v>
-      </c>
+        <v>697652.6899999999</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2056160.31</v>
-      </c>
+        <v>837093.1</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>697652.6899999999</v>
-      </c>
+        <v>823407.99</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>837093.1</v>
-      </c>
+        <v>1343412.19</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>823407.99</v>
+        <v>622840.87</v>
+      </c>
+      <c r="C29" t="n">
+        <v>652445.66</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1343412.19</v>
+        <v>99230.78999999999</v>
+      </c>
+      <c r="C30" t="n">
+        <v>98788.89</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>622840.87</v>
+        <v>6080452.74</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6197094.41</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>99230.78999999999</v>
+        <v>132530.34</v>
+      </c>
+      <c r="C32" t="n">
+        <v>132550.47</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Galileo Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6080452.74</v>
+        <v>24222.87</v>
+      </c>
+      <c r="C33" t="n">
+        <v>24177.25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132530.34</v>
+        <v>501205.92</v>
+      </c>
+      <c r="C34" t="n">
+        <v>491351.58</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>24222.87</v>
+        <v>890426.16</v>
+      </c>
+      <c r="C35" t="n">
+        <v>891680.0600000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>501205.92</v>
+        <v>120674.03</v>
+      </c>
+      <c r="C36" t="n">
+        <v>126296.71</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>890426.16</v>
+        <v>35433.55</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35438.87</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>120674.03</v>
+        <v>146018.28</v>
+      </c>
+      <c r="C38" t="n">
+        <v>168968.18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>35433.55</v>
+        <v>101939.35</v>
+      </c>
+      <c r="C39" t="n">
+        <v>102030.77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>146018.28</v>
+        <v>109322.8</v>
+      </c>
+      <c r="C40" t="n">
+        <v>109287.81</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>101939.35</v>
-      </c>
+        <v>323614.49</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>109322.8</v>
+        <v>752391.42</v>
+      </c>
+      <c r="C42" t="n">
+        <v>752047.52</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>323614.49</v>
+        <v>182433.71</v>
+      </c>
+      <c r="C43" t="n">
+        <v>222467.76</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>752391.42</v>
+        <v>352786.47</v>
+      </c>
+      <c r="C44" t="n">
+        <v>352905.89</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>182433.71</v>
+        <v>245597.84</v>
+      </c>
+      <c r="C45" t="n">
+        <v>245914.59</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>352786.47</v>
+        <v>1281351.12</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1281210.23</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>245597.84</v>
+        <v>2237061.58</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2238299.03</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1281351.12</v>
+        <v>3815299.8</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3981705.87</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2237061.58</v>
+        <v>3751419.83</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3753808.9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3815299.8</v>
+        <v>844626.27</v>
+      </c>
+      <c r="C50" t="n">
+        <v>844640.45</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3751419.83</v>
+        <v>158599.93</v>
+      </c>
+      <c r="C51" t="n">
+        <v>149476.03</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>844626.27</v>
+        <v>863136.74</v>
+      </c>
+      <c r="C52" t="n">
+        <v>846907.1800000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>158599.93</v>
+        <v>43156837.09</v>
+      </c>
+      <c r="C53" t="n">
+        <v>32182472.69</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CEPU.xlsx
+++ b/backend/src/excel_handler/files/CEPU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>615125.1800000001</v>
       </c>
+      <c r="D2" t="n">
+        <v>772192.21</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>1125857.31</v>
       </c>
+      <c r="D3" t="n">
+        <v>1163971.12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>127982.88</v>
       </c>
+      <c r="D4" t="n">
+        <v>150987.92</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -496,6 +510,9 @@
       <c r="C5" t="n">
         <v>212925.38</v>
       </c>
+      <c r="D5" t="n">
+        <v>213079.68</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -509,6 +526,9 @@
       <c r="C6" t="n">
         <v>505965.04</v>
       </c>
+      <c r="D6" t="n">
+        <v>531905.03</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -522,6 +542,9 @@
       <c r="C7" t="n">
         <v>1248017.56</v>
       </c>
+      <c r="D7" t="n">
+        <v>1271450.94</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -535,6 +558,9 @@
       <c r="C8" t="n">
         <v>542205.6</v>
       </c>
+      <c r="D8" t="n">
+        <v>606386.45</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -548,6 +574,9 @@
       <c r="C9" t="n">
         <v>26952.41</v>
       </c>
+      <c r="D9" t="n">
+        <v>26951.39</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -561,6 +590,9 @@
       <c r="C10" t="n">
         <v>901326.49</v>
       </c>
+      <c r="D10" t="n">
+        <v>895536.58</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -574,6 +606,9 @@
       <c r="C11" t="n">
         <v>37364.61</v>
       </c>
+      <c r="D11" t="n">
+        <v>37329.18</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -587,6 +622,9 @@
       <c r="C12" t="n">
         <v>11801.98</v>
       </c>
+      <c r="D12" t="n">
+        <v>11795.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -600,6 +638,9 @@
       <c r="C13" t="n">
         <v>29005.93</v>
       </c>
+      <c r="D13" t="n">
+        <v>28982.03</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -613,6 +654,9 @@
       <c r="C14" t="n">
         <v>1092300.83</v>
       </c>
+      <c r="D14" t="n">
+        <v>1144575.52</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -626,6 +670,9 @@
       <c r="C15" t="n">
         <v>255256.87</v>
       </c>
+      <c r="D15" t="n">
+        <v>264621.23</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -639,6 +686,9 @@
       <c r="C16" t="n">
         <v>507065.21</v>
       </c>
+      <c r="D16" t="n">
+        <v>507478.91</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -652,6 +702,9 @@
       <c r="C17" t="n">
         <v>2090732.48</v>
       </c>
+      <c r="D17" t="n">
+        <v>2073867.08</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -663,6 +716,9 @@
         <v>2224279.86</v>
       </c>
       <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>2224896.98</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -674,6 +730,9 @@
         <v>995074.59</v>
       </c>
       <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>841089.8</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -685,6 +744,9 @@
         <v>237529.61</v>
       </c>
       <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>237314.94</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -696,6 +758,9 @@
         <v>7507.43</v>
       </c>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>7491.4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -707,6 +772,9 @@
         <v>16001.67</v>
       </c>
       <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>16012.77</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -718,6 +786,9 @@
         <v>1849616.67</v>
       </c>
       <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>1753381.46</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -729,6 +800,9 @@
         <v>2056160.31</v>
       </c>
       <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>2025925.45</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -740,6 +814,9 @@
         <v>697652.6899999999</v>
       </c>
       <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>698312.97</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -751,6 +828,9 @@
         <v>837093.1</v>
       </c>
       <c r="C26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>836625.3199999999</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -762,6 +842,9 @@
         <v>823407.99</v>
       </c>
       <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>860303.14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -773,6 +856,9 @@
         <v>1343412.19</v>
       </c>
       <c r="C28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>1354064</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -786,6 +872,9 @@
       <c r="C29" t="n">
         <v>652445.66</v>
       </c>
+      <c r="D29" t="n">
+        <v>663111.13</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -799,6 +888,9 @@
       <c r="C30" t="n">
         <v>98788.89</v>
       </c>
+      <c r="D30" t="n">
+        <v>99016.11</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -812,6 +904,9 @@
       <c r="C31" t="n">
         <v>6197094.41</v>
       </c>
+      <c r="D31" t="n">
+        <v>6201618.5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -825,6 +920,9 @@
       <c r="C32" t="n">
         <v>132550.47</v>
       </c>
+      <c r="D32" t="n">
+        <v>117493.02</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -838,6 +936,9 @@
       <c r="C33" t="n">
         <v>24177.25</v>
       </c>
+      <c r="D33" t="n">
+        <v>24203.87</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -851,6 +952,9 @@
       <c r="C34" t="n">
         <v>491351.58</v>
       </c>
+      <c r="D34" t="n">
+        <v>490835.65</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -864,6 +968,9 @@
       <c r="C35" t="n">
         <v>891680.0600000001</v>
       </c>
+      <c r="D35" t="n">
+        <v>861459.89</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -877,6 +984,9 @@
       <c r="C36" t="n">
         <v>126296.71</v>
       </c>
+      <c r="D36" t="n">
+        <v>162432.58</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -890,6 +1000,9 @@
       <c r="C37" t="n">
         <v>35438.87</v>
       </c>
+      <c r="D37" t="n">
+        <v>40033.85</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -903,6 +1016,9 @@
       <c r="C38" t="n">
         <v>168968.18</v>
       </c>
+      <c r="D38" t="n">
+        <v>188028.03</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -916,6 +1032,9 @@
       <c r="C39" t="n">
         <v>102030.77</v>
       </c>
+      <c r="D39" t="n">
+        <v>101929.08</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -929,6 +1048,9 @@
       <c r="C40" t="n">
         <v>109287.81</v>
       </c>
+      <c r="D40" t="n">
+        <v>109371.86</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -940,6 +1062,9 @@
         <v>323614.49</v>
       </c>
       <c r="C41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>323843.43</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -953,6 +1078,9 @@
       <c r="C42" t="n">
         <v>752047.52</v>
       </c>
+      <c r="D42" t="n">
+        <v>751660.05</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -966,6 +1094,9 @@
       <c r="C43" t="n">
         <v>222467.76</v>
       </c>
+      <c r="D43" t="n">
+        <v>222205.4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -979,6 +1110,9 @@
       <c r="C44" t="n">
         <v>352905.89</v>
       </c>
+      <c r="D44" t="n">
+        <v>352466.23</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -992,6 +1126,9 @@
       <c r="C45" t="n">
         <v>245914.59</v>
       </c>
+      <c r="D45" t="n">
+        <v>231257.93</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1005,6 +1142,9 @@
       <c r="C46" t="n">
         <v>1281210.23</v>
       </c>
+      <c r="D46" t="n">
+        <v>1280789.03</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1018,6 +1158,9 @@
       <c r="C47" t="n">
         <v>2238299.03</v>
       </c>
+      <c r="D47" t="n">
+        <v>2236187.14</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1031,6 +1174,9 @@
       <c r="C48" t="n">
         <v>3981705.87</v>
       </c>
+      <c r="D48" t="n">
+        <v>4722401.85</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1044,6 +1190,9 @@
       <c r="C49" t="n">
         <v>3753808.9</v>
       </c>
+      <c r="D49" t="n">
+        <v>3753153.52</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1057,6 +1206,9 @@
       <c r="C50" t="n">
         <v>844640.45</v>
       </c>
+      <c r="D50" t="n">
+        <v>844230.3</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1070,6 +1222,9 @@
       <c r="C51" t="n">
         <v>149476.03</v>
       </c>
+      <c r="D51" t="n">
+        <v>149434.39</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1083,6 +1238,9 @@
       <c r="C52" t="n">
         <v>846907.1800000001</v>
       </c>
+      <c r="D52" t="n">
+        <v>889673.85</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1095,6 +1253,9 @@
       </c>
       <c r="C53" t="n">
         <v>32182472.69</v>
+      </c>
+      <c r="D53" t="n">
+        <v>44483692.29</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CEPU.xlsx
+++ b/backend/src/excel_handler/files/CEPU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>772192.21</v>
       </c>
+      <c r="E2" t="n">
+        <v>792659.6899999999</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>1163971.12</v>
       </c>
+      <c r="E3" t="n">
+        <v>1222595.49</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -497,6 +508,9 @@
       <c r="D4" t="n">
         <v>150987.92</v>
       </c>
+      <c r="E4" t="n">
+        <v>150941.97</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -513,6 +527,9 @@
       <c r="D5" t="n">
         <v>213079.68</v>
       </c>
+      <c r="E5" t="n">
+        <v>246653.06</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -529,6 +546,9 @@
       <c r="D6" t="n">
         <v>531905.03</v>
       </c>
+      <c r="E6" t="n">
+        <v>531809.6800000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -545,6 +565,9 @@
       <c r="D7" t="n">
         <v>1271450.94</v>
       </c>
+      <c r="E7" t="n">
+        <v>1272494.6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -561,6 +584,9 @@
       <c r="D8" t="n">
         <v>606386.45</v>
       </c>
+      <c r="E8" t="n">
+        <v>605949.85</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -577,6 +603,9 @@
       <c r="D9" t="n">
         <v>26951.39</v>
       </c>
+      <c r="E9" t="n">
+        <v>26923.28</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -593,6 +622,9 @@
       <c r="D10" t="n">
         <v>895536.58</v>
       </c>
+      <c r="E10" t="n">
+        <v>897059.13</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -609,6 +641,9 @@
       <c r="D11" t="n">
         <v>37329.18</v>
       </c>
+      <c r="E11" t="n">
+        <v>37390.46</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -625,6 +660,9 @@
       <c r="D12" t="n">
         <v>11795.95</v>
       </c>
+      <c r="E12" t="n">
+        <v>11806.34</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -641,6 +679,9 @@
       <c r="D13" t="n">
         <v>28982.03</v>
       </c>
+      <c r="E13" t="n">
+        <v>29023.42</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -657,6 +698,9 @@
       <c r="D14" t="n">
         <v>1144575.52</v>
       </c>
+      <c r="E14" t="n">
+        <v>1144496.64</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -673,6 +717,9 @@
       <c r="D15" t="n">
         <v>264621.23</v>
       </c>
+      <c r="E15" t="n">
+        <v>275529.11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -689,6 +736,9 @@
       <c r="D16" t="n">
         <v>507478.91</v>
       </c>
+      <c r="E16" t="n">
+        <v>507595.91</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -704,6 +754,9 @@
       </c>
       <c r="D17" t="n">
         <v>2073867.08</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2049802.9</v>
       </c>
     </row>
     <row r="18">
@@ -719,6 +772,9 @@
       <c r="D18" t="n">
         <v>2224896.98</v>
       </c>
+      <c r="E18" t="n">
+        <v>2224481.37</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -733,6 +789,9 @@
       <c r="D19" t="n">
         <v>841089.8</v>
       </c>
+      <c r="E19" t="n">
+        <v>841878.96</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -747,6 +806,9 @@
       <c r="D20" t="n">
         <v>237314.94</v>
       </c>
+      <c r="E20" t="n">
+        <v>237388.92</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -761,6 +823,9 @@
       <c r="D21" t="n">
         <v>7491.4</v>
       </c>
+      <c r="E21" t="n">
+        <v>7496.05</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -775,6 +840,9 @@
       <c r="D22" t="n">
         <v>16012.77</v>
       </c>
+      <c r="E22" t="n">
+        <v>16014.77</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -789,6 +857,9 @@
       <c r="D23" t="n">
         <v>1753381.46</v>
       </c>
+      <c r="E23" t="n">
+        <v>1752994.25</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -803,6 +874,9 @@
       <c r="D24" t="n">
         <v>2025925.45</v>
       </c>
+      <c r="E24" t="n">
+        <v>1989513.23</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -817,6 +891,9 @@
       <c r="D25" t="n">
         <v>698312.97</v>
       </c>
+      <c r="E25" t="n">
+        <v>697364.42</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -831,6 +908,9 @@
       <c r="D26" t="n">
         <v>836625.3199999999</v>
       </c>
+      <c r="E26" t="n">
+        <v>910809.39</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -845,6 +925,9 @@
       <c r="D27" t="n">
         <v>860303.14</v>
       </c>
+      <c r="E27" t="n">
+        <v>871428.04</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -859,6 +942,9 @@
       <c r="D28" t="n">
         <v>1354064</v>
       </c>
+      <c r="E28" t="n">
+        <v>1467997.03</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -875,6 +961,9 @@
       <c r="D29" t="n">
         <v>663111.13</v>
       </c>
+      <c r="E29" t="n">
+        <v>700544.55</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -891,6 +980,9 @@
       <c r="D30" t="n">
         <v>99016.11</v>
       </c>
+      <c r="E30" t="n">
+        <v>99140.42</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -907,6 +999,9 @@
       <c r="D31" t="n">
         <v>6201618.5</v>
       </c>
+      <c r="E31" t="n">
+        <v>6202107.59</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -923,6 +1018,9 @@
       <c r="D32" t="n">
         <v>117493.02</v>
       </c>
+      <c r="E32" t="n">
+        <v>117659.12</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -939,6 +1037,9 @@
       <c r="D33" t="n">
         <v>24203.87</v>
       </c>
+      <c r="E33" t="n">
+        <v>24184.32</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -955,6 +1056,9 @@
       <c r="D34" t="n">
         <v>490835.65</v>
       </c>
+      <c r="E34" t="n">
+        <v>491124.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -971,6 +1075,9 @@
       <c r="D35" t="n">
         <v>861459.89</v>
       </c>
+      <c r="E35" t="n">
+        <v>860911.38</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -987,6 +1094,9 @@
       <c r="D36" t="n">
         <v>162432.58</v>
       </c>
+      <c r="E36" t="n">
+        <v>170074.75</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1003,6 +1113,9 @@
       <c r="D37" t="n">
         <v>40033.85</v>
       </c>
+      <c r="E37" t="n">
+        <v>40045.81</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1019,6 +1132,9 @@
       <c r="D38" t="n">
         <v>188028.03</v>
       </c>
+      <c r="E38" t="n">
+        <v>204519.79</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1035,6 +1151,9 @@
       <c r="D39" t="n">
         <v>101929.08</v>
       </c>
+      <c r="E39" t="n">
+        <v>101804.28</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1050,6 +1169,9 @@
       </c>
       <c r="D40" t="n">
         <v>109371.86</v>
+      </c>
+      <c r="E40" t="n">
+        <v>109364.71</v>
       </c>
     </row>
     <row r="41">
@@ -1065,6 +1187,9 @@
       <c r="D41" t="n">
         <v>323843.43</v>
       </c>
+      <c r="E41" t="n">
+        <v>324182.52</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1081,6 +1206,9 @@
       <c r="D42" t="n">
         <v>751660.05</v>
       </c>
+      <c r="E42" t="n">
+        <v>751793.21</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1097,6 +1225,9 @@
       <c r="D43" t="n">
         <v>222205.4</v>
       </c>
+      <c r="E43" t="n">
+        <v>229263.64</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1113,6 +1244,9 @@
       <c r="D44" t="n">
         <v>352466.23</v>
       </c>
+      <c r="E44" t="n">
+        <v>352832.77</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1129,6 +1263,9 @@
       <c r="D45" t="n">
         <v>231257.93</v>
       </c>
+      <c r="E45" t="n">
+        <v>227079.28</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1145,6 +1282,9 @@
       <c r="D46" t="n">
         <v>1280789.03</v>
       </c>
+      <c r="E46" t="n">
+        <v>1281092.69</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1161,6 +1301,9 @@
       <c r="D47" t="n">
         <v>2236187.14</v>
       </c>
+      <c r="E47" t="n">
+        <v>2317220.52</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1177,6 +1320,7 @@
       <c r="D48" t="n">
         <v>4722401.85</v>
       </c>
+      <c r="E48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1193,6 +1337,9 @@
       <c r="D49" t="n">
         <v>3753153.52</v>
       </c>
+      <c r="E49" t="n">
+        <v>3753997.54</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1209,6 +1356,9 @@
       <c r="D50" t="n">
         <v>844230.3</v>
       </c>
+      <c r="E50" t="n">
+        <v>844453</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1225,6 +1375,9 @@
       <c r="D51" t="n">
         <v>149434.39</v>
       </c>
+      <c r="E51" t="n">
+        <v>149441.16</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1241,6 +1394,9 @@
       <c r="D52" t="n">
         <v>889673.85</v>
       </c>
+      <c r="E52" t="n">
+        <v>819855.8199999999</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1256,6 +1412,9 @@
       </c>
       <c r="D53" t="n">
         <v>44483692.29</v>
+      </c>
+      <c r="E53" t="n">
+        <v>40172935.21</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CEPU.xlsx
+++ b/backend/src/excel_handler/files/CEPU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>792659.6899999999</v>
       </c>
+      <c r="F2" t="n">
+        <v>792233.4300000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>1222595.49</v>
       </c>
+      <c r="F3" t="n">
+        <v>1174987.19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -511,6 +522,9 @@
       <c r="E4" t="n">
         <v>150941.97</v>
       </c>
+      <c r="F4" t="n">
+        <v>150719.65</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -530,6 +544,9 @@
       <c r="E5" t="n">
         <v>246653.06</v>
       </c>
+      <c r="F5" t="n">
+        <v>246694.33</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -549,6 +566,9 @@
       <c r="E6" t="n">
         <v>531809.6800000001</v>
       </c>
+      <c r="F6" t="n">
+        <v>531955.96</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -568,6 +588,9 @@
       <c r="E7" t="n">
         <v>1272494.6</v>
       </c>
+      <c r="F7" t="n">
+        <v>1273198.49</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -587,6 +610,9 @@
       <c r="E8" t="n">
         <v>605949.85</v>
       </c>
+      <c r="F8" t="n">
+        <v>606295.39</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -606,6 +632,9 @@
       <c r="E9" t="n">
         <v>26923.28</v>
       </c>
+      <c r="F9" t="n">
+        <v>26957.02</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -625,6 +654,9 @@
       <c r="E10" t="n">
         <v>897059.13</v>
       </c>
+      <c r="F10" t="n">
+        <v>897418.8199999999</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -644,6 +676,9 @@
       <c r="E11" t="n">
         <v>37390.46</v>
       </c>
+      <c r="F11" t="n">
+        <v>37330.72</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -663,6 +698,9 @@
       <c r="E12" t="n">
         <v>11806.34</v>
       </c>
+      <c r="F12" t="n">
+        <v>11550.99</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -682,6 +720,9 @@
       <c r="E13" t="n">
         <v>29023.42</v>
       </c>
+      <c r="F13" t="n">
+        <v>29004.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -701,6 +742,9 @@
       <c r="E14" t="n">
         <v>1144496.64</v>
       </c>
+      <c r="F14" t="n">
+        <v>1156834.25</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -720,6 +764,9 @@
       <c r="E15" t="n">
         <v>275529.11</v>
       </c>
+      <c r="F15" t="n">
+        <v>285935.51</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -739,6 +786,9 @@
       <c r="E16" t="n">
         <v>507595.91</v>
       </c>
+      <c r="F16" t="n">
+        <v>507056.67</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -757,6 +807,9 @@
       </c>
       <c r="E17" t="n">
         <v>2049802.9</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2034293.64</v>
       </c>
     </row>
     <row r="18">
@@ -775,6 +828,9 @@
       <c r="E18" t="n">
         <v>2224481.37</v>
       </c>
+      <c r="F18" t="n">
+        <v>2225272.96</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -792,6 +848,9 @@
       <c r="E19" t="n">
         <v>841878.96</v>
       </c>
+      <c r="F19" t="n">
+        <v>841118.63</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -809,6 +868,9 @@
       <c r="E20" t="n">
         <v>237388.92</v>
       </c>
+      <c r="F20" t="n">
+        <v>237333.48</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -826,6 +888,9 @@
       <c r="E21" t="n">
         <v>7496.05</v>
       </c>
+      <c r="F21" t="n">
+        <v>7498.45</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -843,6 +908,9 @@
       <c r="E22" t="n">
         <v>16014.77</v>
       </c>
+      <c r="F22" t="n">
+        <v>15988.85</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -860,6 +928,9 @@
       <c r="E23" t="n">
         <v>1752994.25</v>
       </c>
+      <c r="F23" t="n">
+        <v>1722659.05</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -877,6 +948,9 @@
       <c r="E24" t="n">
         <v>1989513.23</v>
       </c>
+      <c r="F24" t="n">
+        <v>1990214.25</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -894,6 +968,9 @@
       <c r="E25" t="n">
         <v>697364.42</v>
       </c>
+      <c r="F25" t="n">
+        <v>699070.84</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -911,6 +988,9 @@
       <c r="E26" t="n">
         <v>910809.39</v>
       </c>
+      <c r="F26" t="n">
+        <v>948613.51</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -928,6 +1008,9 @@
       <c r="E27" t="n">
         <v>871428.04</v>
       </c>
+      <c r="F27" t="n">
+        <v>874369.03</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -945,6 +1028,9 @@
       <c r="E28" t="n">
         <v>1467997.03</v>
       </c>
+      <c r="F28" t="n">
+        <v>1458433.54</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -964,6 +1050,9 @@
       <c r="E29" t="n">
         <v>700544.55</v>
       </c>
+      <c r="F29" t="n">
+        <v>705883.8100000001</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -983,6 +1072,9 @@
       <c r="E30" t="n">
         <v>99140.42</v>
       </c>
+      <c r="F30" t="n">
+        <v>98947.08</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1002,6 +1094,9 @@
       <c r="E31" t="n">
         <v>6202107.59</v>
       </c>
+      <c r="F31" t="n">
+        <v>6600562.53</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1021,6 +1116,9 @@
       <c r="E32" t="n">
         <v>117659.12</v>
       </c>
+      <c r="F32" t="n">
+        <v>117488.55</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1040,6 +1138,9 @@
       <c r="E33" t="n">
         <v>24184.32</v>
       </c>
+      <c r="F33" t="n">
+        <v>24214.73</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1059,6 +1160,9 @@
       <c r="E34" t="n">
         <v>491124.2</v>
       </c>
+      <c r="F34" t="n">
+        <v>476081.62</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1078,6 +1182,9 @@
       <c r="E35" t="n">
         <v>860911.38</v>
       </c>
+      <c r="F35" t="n">
+        <v>861172.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1097,6 +1204,9 @@
       <c r="E36" t="n">
         <v>170074.75</v>
       </c>
+      <c r="F36" t="n">
+        <v>168438.82</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1116,6 +1226,9 @@
       <c r="E37" t="n">
         <v>40045.81</v>
       </c>
+      <c r="F37" t="n">
+        <v>40042.25</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1135,6 +1248,9 @@
       <c r="E38" t="n">
         <v>204519.79</v>
       </c>
+      <c r="F38" t="n">
+        <v>204970.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1154,6 +1270,9 @@
       <c r="E39" t="n">
         <v>101804.28</v>
       </c>
+      <c r="F39" t="n">
+        <v>101800.12</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1172,6 +1291,9 @@
       </c>
       <c r="E40" t="n">
         <v>109364.71</v>
+      </c>
+      <c r="F40" t="n">
+        <v>91858.89</v>
       </c>
     </row>
     <row r="41">
@@ -1190,6 +1312,9 @@
       <c r="E41" t="n">
         <v>324182.52</v>
       </c>
+      <c r="F41" t="n">
+        <v>368893.54</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1209,6 +1334,9 @@
       <c r="E42" t="n">
         <v>751793.21</v>
       </c>
+      <c r="F42" t="n">
+        <v>751774.42</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1228,6 +1356,9 @@
       <c r="E43" t="n">
         <v>229263.64</v>
       </c>
+      <c r="F43" t="n">
+        <v>229302.26</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1247,6 +1378,9 @@
       <c r="E44" t="n">
         <v>352832.77</v>
       </c>
+      <c r="F44" t="n">
+        <v>352546.42</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1266,6 +1400,9 @@
       <c r="E45" t="n">
         <v>227079.28</v>
       </c>
+      <c r="F45" t="n">
+        <v>245147.22</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1285,6 +1422,9 @@
       <c r="E46" t="n">
         <v>1281092.69</v>
       </c>
+      <c r="F46" t="n">
+        <v>1280926.2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1304,6 +1444,9 @@
       <c r="E47" t="n">
         <v>2317220.52</v>
       </c>
+      <c r="F47" t="n">
+        <v>2319550.38</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1321,6 +1464,7 @@
         <v>4722401.85</v>
       </c>
       <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1340,6 +1484,9 @@
       <c r="E49" t="n">
         <v>3753997.54</v>
       </c>
+      <c r="F49" t="n">
+        <v>3754193.77</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1359,6 +1506,9 @@
       <c r="E50" t="n">
         <v>844453</v>
       </c>
+      <c r="F50" t="n">
+        <v>845120.9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1378,6 +1528,9 @@
       <c r="E51" t="n">
         <v>149441.16</v>
       </c>
+      <c r="F51" t="n">
+        <v>149481.19</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1397,6 +1550,9 @@
       <c r="E52" t="n">
         <v>819855.8199999999</v>
       </c>
+      <c r="F52" t="n">
+        <v>827988.5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1415,6 +1571,9 @@
       </c>
       <c r="E53" t="n">
         <v>40172935.21</v>
+      </c>
+      <c r="F53" t="n">
+        <v>40571436.58</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CEPU.xlsx
+++ b/backend/src/excel_handler/files/CEPU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>792233.4300000001</v>
       </c>
+      <c r="G2" t="n">
+        <v>743268.22</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>1174987.19</v>
       </c>
+      <c r="G3" t="n">
+        <v>1197916.35</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -525,6 +536,9 @@
       <c r="F4" t="n">
         <v>150719.65</v>
       </c>
+      <c r="G4" t="n">
+        <v>150819.77</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -547,6 +561,9 @@
       <c r="F5" t="n">
         <v>246694.33</v>
       </c>
+      <c r="G5" t="n">
+        <v>246559.88</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -569,6 +586,9 @@
       <c r="F6" t="n">
         <v>531955.96</v>
       </c>
+      <c r="G6" t="n">
+        <v>531932.14</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -591,6 +611,9 @@
       <c r="F7" t="n">
         <v>1273198.49</v>
       </c>
+      <c r="G7" t="n">
+        <v>1271329.34</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -613,6 +636,9 @@
       <c r="F8" t="n">
         <v>606295.39</v>
       </c>
+      <c r="G8" t="n">
+        <v>640347.52</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -635,6 +661,9 @@
       <c r="F9" t="n">
         <v>26957.02</v>
       </c>
+      <c r="G9" t="n">
+        <v>26886.39</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -657,6 +686,9 @@
       <c r="F10" t="n">
         <v>897418.8199999999</v>
       </c>
+      <c r="G10" t="n">
+        <v>900481.1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -679,6 +711,9 @@
       <c r="F11" t="n">
         <v>37330.72</v>
       </c>
+      <c r="G11" t="n">
+        <v>37280.04</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -701,6 +736,9 @@
       <c r="F12" t="n">
         <v>11550.99</v>
       </c>
+      <c r="G12" t="n">
+        <v>11551.15</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -723,6 +761,9 @@
       <c r="F13" t="n">
         <v>29004.5</v>
       </c>
+      <c r="G13" t="n">
+        <v>29041.68</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -745,6 +786,9 @@
       <c r="F14" t="n">
         <v>1156834.25</v>
       </c>
+      <c r="G14" t="n">
+        <v>1175816.31</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -767,6 +811,9 @@
       <c r="F15" t="n">
         <v>285935.51</v>
       </c>
+      <c r="G15" t="n">
+        <v>285762.22</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -789,6 +836,9 @@
       <c r="F16" t="n">
         <v>507056.67</v>
       </c>
+      <c r="G16" t="n">
+        <v>507308.53</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -810,6 +860,9 @@
       </c>
       <c r="F17" t="n">
         <v>2034293.64</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2013829.13</v>
       </c>
     </row>
     <row r="18">
@@ -831,6 +884,9 @@
       <c r="F18" t="n">
         <v>2225272.96</v>
       </c>
+      <c r="G18" t="n">
+        <v>2226404.6</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -851,6 +907,9 @@
       <c r="F19" t="n">
         <v>841118.63</v>
       </c>
+      <c r="G19" t="n">
+        <v>841006.4300000001</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -871,6 +930,9 @@
       <c r="F20" t="n">
         <v>237333.48</v>
       </c>
+      <c r="G20" t="n">
+        <v>237594.81</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -891,6 +953,9 @@
       <c r="F21" t="n">
         <v>7498.45</v>
       </c>
+      <c r="G21" t="n">
+        <v>7502.78</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -911,6 +976,9 @@
       <c r="F22" t="n">
         <v>15988.85</v>
       </c>
+      <c r="G22" t="n">
+        <v>16000.03</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -931,6 +999,9 @@
       <c r="F23" t="n">
         <v>1722659.05</v>
       </c>
+      <c r="G23" t="n">
+        <v>1675565.1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -951,6 +1022,9 @@
       <c r="F24" t="n">
         <v>1990214.25</v>
       </c>
+      <c r="G24" t="n">
+        <v>1988907.37</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -971,6 +1045,9 @@
       <c r="F25" t="n">
         <v>699070.84</v>
       </c>
+      <c r="G25" t="n">
+        <v>697023.74</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -991,6 +1068,9 @@
       <c r="F26" t="n">
         <v>948613.51</v>
       </c>
+      <c r="G26" t="n">
+        <v>938789.52</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1011,6 +1091,9 @@
       <c r="F27" t="n">
         <v>874369.03</v>
       </c>
+      <c r="G27" t="n">
+        <v>864997.36</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1031,6 +1114,9 @@
       <c r="F28" t="n">
         <v>1458433.54</v>
       </c>
+      <c r="G28" t="n">
+        <v>1459627.3</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1053,6 +1139,9 @@
       <c r="F29" t="n">
         <v>705883.8100000001</v>
       </c>
+      <c r="G29" t="n">
+        <v>706876.12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1075,6 +1164,9 @@
       <c r="F30" t="n">
         <v>98947.08</v>
       </c>
+      <c r="G30" t="n">
+        <v>98921.24000000001</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1097,6 +1189,9 @@
       <c r="F31" t="n">
         <v>6600562.53</v>
       </c>
+      <c r="G31" t="n">
+        <v>6801882.53</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1119,6 +1214,9 @@
       <c r="F32" t="n">
         <v>117488.55</v>
       </c>
+      <c r="G32" t="n">
+        <v>117594.13</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1141,6 +1239,9 @@
       <c r="F33" t="n">
         <v>24214.73</v>
       </c>
+      <c r="G33" t="n">
+        <v>24216.45</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1163,6 +1264,9 @@
       <c r="F34" t="n">
         <v>476081.62</v>
       </c>
+      <c r="G34" t="n">
+        <v>465820.73</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1185,6 +1289,9 @@
       <c r="F35" t="n">
         <v>861172.4</v>
       </c>
+      <c r="G35" t="n">
+        <v>861219.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1207,6 +1314,9 @@
       <c r="F36" t="n">
         <v>168438.82</v>
       </c>
+      <c r="G36" t="n">
+        <v>168228.33</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1229,6 +1339,9 @@
       <c r="F37" t="n">
         <v>40042.25</v>
       </c>
+      <c r="G37" t="n">
+        <v>40041.13</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1251,6 +1364,9 @@
       <c r="F38" t="n">
         <v>204970.33</v>
       </c>
+      <c r="G38" t="n">
+        <v>204861.99</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1273,6 +1389,9 @@
       <c r="F39" t="n">
         <v>101800.12</v>
       </c>
+      <c r="G39" t="n">
+        <v>101872.38</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1294,6 +1413,9 @@
       </c>
       <c r="F40" t="n">
         <v>91858.89</v>
+      </c>
+      <c r="G40" t="n">
+        <v>91903.97</v>
       </c>
     </row>
     <row r="41">
@@ -1315,6 +1437,9 @@
       <c r="F41" t="n">
         <v>368893.54</v>
       </c>
+      <c r="G41" t="n">
+        <v>386689.22</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1337,6 +1462,9 @@
       <c r="F42" t="n">
         <v>751774.42</v>
       </c>
+      <c r="G42" t="n">
+        <v>752201.99</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1359,6 +1487,9 @@
       <c r="F43" t="n">
         <v>229302.26</v>
       </c>
+      <c r="G43" t="n">
+        <v>229455.68</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1381,6 +1512,9 @@
       <c r="F44" t="n">
         <v>352546.42</v>
       </c>
+      <c r="G44" t="n">
+        <v>352607.96</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1403,6 +1537,9 @@
       <c r="F45" t="n">
         <v>245147.22</v>
       </c>
+      <c r="G45" t="n">
+        <v>247708.88</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1425,6 +1562,9 @@
       <c r="F46" t="n">
         <v>1280926.2</v>
       </c>
+      <c r="G46" t="n">
+        <v>1280653.58</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1447,6 +1587,9 @@
       <c r="F47" t="n">
         <v>2319550.38</v>
       </c>
+      <c r="G47" t="n">
+        <v>2320132.33</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1465,6 +1608,7 @@
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1487,6 +1631,9 @@
       <c r="F49" t="n">
         <v>3754193.77</v>
       </c>
+      <c r="G49" t="n">
+        <v>3752624.76</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1509,6 +1656,9 @@
       <c r="F50" t="n">
         <v>845120.9</v>
       </c>
+      <c r="G50" t="n">
+        <v>845020.6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1531,6 +1681,9 @@
       <c r="F51" t="n">
         <v>149481.19</v>
       </c>
+      <c r="G51" t="n">
+        <v>149411.65</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1553,6 +1706,9 @@
       <c r="F52" t="n">
         <v>827988.5</v>
       </c>
+      <c r="G52" t="n">
+        <v>831091.71</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1574,6 +1730,9 @@
       </c>
       <c r="F53" t="n">
         <v>40571436.58</v>
+      </c>
+      <c r="G53" t="n">
+        <v>40723493.96</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CEPU.xlsx
+++ b/backend/src/excel_handler/files/CEPU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>743268.22</v>
       </c>
+      <c r="H2" t="n">
+        <v>720092.34</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>1197916.35</v>
       </c>
+      <c r="H3" t="n">
+        <v>1164135.05</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>150819.77</v>
       </c>
+      <c r="H4" t="n">
+        <v>150839.67</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>246559.88</v>
       </c>
+      <c r="H5" t="n">
+        <v>246556.89</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -589,6 +606,9 @@
       <c r="G6" t="n">
         <v>531932.14</v>
       </c>
+      <c r="H6" t="n">
+        <v>534881.4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -614,6 +634,9 @@
       <c r="G7" t="n">
         <v>1271329.34</v>
       </c>
+      <c r="H7" t="n">
+        <v>1279875.03</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -639,6 +662,9 @@
       <c r="G8" t="n">
         <v>640347.52</v>
       </c>
+      <c r="H8" t="n">
+        <v>643782.35</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -664,6 +690,9 @@
       <c r="G9" t="n">
         <v>26886.39</v>
       </c>
+      <c r="H9" t="n">
+        <v>27041.92</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -689,6 +718,9 @@
       <c r="G10" t="n">
         <v>900481.1</v>
       </c>
+      <c r="H10" t="n">
+        <v>900520.3199999999</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -714,6 +746,9 @@
       <c r="G11" t="n">
         <v>37280.04</v>
       </c>
+      <c r="H11" t="n">
+        <v>37539.37</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -739,6 +774,9 @@
       <c r="G12" t="n">
         <v>11551.15</v>
       </c>
+      <c r="H12" t="n">
+        <v>11612.59</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -764,6 +802,9 @@
       <c r="G13" t="n">
         <v>29041.68</v>
       </c>
+      <c r="H13" t="n">
+        <v>29191.55</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -789,6 +830,9 @@
       <c r="G14" t="n">
         <v>1175816.31</v>
       </c>
+      <c r="H14" t="n">
+        <v>1191588.98</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -814,6 +858,9 @@
       <c r="G15" t="n">
         <v>285762.22</v>
       </c>
+      <c r="H15" t="n">
+        <v>298164.31</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -839,6 +886,9 @@
       <c r="G16" t="n">
         <v>507308.53</v>
       </c>
+      <c r="H16" t="n">
+        <v>509756.51</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -863,6 +913,9 @@
       </c>
       <c r="G17" t="n">
         <v>2013829.13</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2006640.74</v>
       </c>
     </row>
     <row r="18">
@@ -887,6 +940,9 @@
       <c r="G18" t="n">
         <v>2226404.6</v>
       </c>
+      <c r="H18" t="n">
+        <v>2237564.42</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -910,6 +966,9 @@
       <c r="G19" t="n">
         <v>841006.4300000001</v>
       </c>
+      <c r="H19" t="n">
+        <v>845813.42</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -933,6 +992,9 @@
       <c r="G20" t="n">
         <v>237594.81</v>
       </c>
+      <c r="H20" t="n">
+        <v>237375.61</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -956,6 +1018,9 @@
       <c r="G21" t="n">
         <v>7502.78</v>
       </c>
+      <c r="H21" t="n">
+        <v>7510.74</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -979,6 +1044,9 @@
       <c r="G22" t="n">
         <v>16000.03</v>
       </c>
+      <c r="H22" t="n">
+        <v>16005.35</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1002,6 +1070,9 @@
       <c r="G23" t="n">
         <v>1675565.1</v>
       </c>
+      <c r="H23" t="n">
+        <v>1676274.92</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1025,6 +1096,9 @@
       <c r="G24" t="n">
         <v>1988907.37</v>
       </c>
+      <c r="H24" t="n">
+        <v>1990492.2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1048,6 +1122,9 @@
       <c r="G25" t="n">
         <v>697023.74</v>
       </c>
+      <c r="H25" t="n">
+        <v>698232.0600000001</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1071,6 +1148,9 @@
       <c r="G26" t="n">
         <v>938789.52</v>
       </c>
+      <c r="H26" t="n">
+        <v>958670.87</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1094,6 +1174,9 @@
       <c r="G27" t="n">
         <v>864997.36</v>
       </c>
+      <c r="H27" t="n">
+        <v>869552.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1117,6 +1200,9 @@
       <c r="G28" t="n">
         <v>1459627.3</v>
       </c>
+      <c r="H28" t="n">
+        <v>1460812.27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1142,6 +1228,9 @@
       <c r="G29" t="n">
         <v>706876.12</v>
       </c>
+      <c r="H29" t="n">
+        <v>705674.21</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1167,6 +1256,9 @@
       <c r="G30" t="n">
         <v>98921.24000000001</v>
       </c>
+      <c r="H30" t="n">
+        <v>99464.16</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1192,6 +1284,9 @@
       <c r="G31" t="n">
         <v>6801882.53</v>
       </c>
+      <c r="H31" t="n">
+        <v>6798202.69</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1217,6 +1312,9 @@
       <c r="G32" t="n">
         <v>117594.13</v>
       </c>
+      <c r="H32" t="n">
+        <v>118300.97</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1242,6 +1340,9 @@
       <c r="G33" t="n">
         <v>24216.45</v>
       </c>
+      <c r="H33" t="n">
+        <v>24317.57</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1267,6 +1368,9 @@
       <c r="G34" t="n">
         <v>465820.73</v>
       </c>
+      <c r="H34" t="n">
+        <v>468496.22</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1292,6 +1396,9 @@
       <c r="G35" t="n">
         <v>861219.5</v>
       </c>
+      <c r="H35" t="n">
+        <v>865147.42</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1317,6 +1424,9 @@
       <c r="G36" t="n">
         <v>168228.33</v>
       </c>
+      <c r="H36" t="n">
+        <v>200887.38</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1342,6 +1452,9 @@
       <c r="G37" t="n">
         <v>40041.13</v>
       </c>
+      <c r="H37" t="n">
+        <v>40281.54</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1367,6 +1480,9 @@
       <c r="G38" t="n">
         <v>204861.99</v>
       </c>
+      <c r="H38" t="n">
+        <v>204992.85</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1392,6 +1508,9 @@
       <c r="G39" t="n">
         <v>101872.38</v>
       </c>
+      <c r="H39" t="n">
+        <v>102401.15</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1416,6 +1535,9 @@
       </c>
       <c r="G40" t="n">
         <v>91903.97</v>
+      </c>
+      <c r="H40" t="n">
+        <v>92270.13</v>
       </c>
     </row>
     <row r="41">
@@ -1440,6 +1562,9 @@
       <c r="G41" t="n">
         <v>386689.22</v>
       </c>
+      <c r="H41" t="n">
+        <v>388604.25</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1465,6 +1590,9 @@
       <c r="G42" t="n">
         <v>752201.99</v>
       </c>
+      <c r="H42" t="n">
+        <v>756271.4300000001</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1490,6 +1618,9 @@
       <c r="G43" t="n">
         <v>229455.68</v>
       </c>
+      <c r="H43" t="n">
+        <v>230550.27</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1515,6 +1646,9 @@
       <c r="G44" t="n">
         <v>352607.96</v>
       </c>
+      <c r="H44" t="n">
+        <v>354091.77</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1540,6 +1674,9 @@
       <c r="G45" t="n">
         <v>247708.88</v>
       </c>
+      <c r="H45" t="n">
+        <v>249622.66</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1565,6 +1702,9 @@
       <c r="G46" t="n">
         <v>1280653.58</v>
       </c>
+      <c r="H46" t="n">
+        <v>1202953.82</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1589,6 +1729,9 @@
       </c>
       <c r="G47" t="n">
         <v>2320132.33</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2325697.34</v>
       </c>
     </row>
     <row r="48">
@@ -1609,6 +1752,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1634,6 +1778,9 @@
       <c r="G49" t="n">
         <v>3752624.76</v>
       </c>
+      <c r="H49" t="n">
+        <v>3704500.63</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1659,6 +1806,9 @@
       <c r="G50" t="n">
         <v>845020.6</v>
       </c>
+      <c r="H50" t="n">
+        <v>833747</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1684,6 +1834,9 @@
       <c r="G51" t="n">
         <v>149411.65</v>
       </c>
+      <c r="H51" t="n">
+        <v>150275.77</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1709,6 +1862,9 @@
       <c r="G52" t="n">
         <v>831091.71</v>
       </c>
+      <c r="H52" t="n">
+        <v>829944.39</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1733,6 +1889,9 @@
       </c>
       <c r="G53" t="n">
         <v>40723493.96</v>
+      </c>
+      <c r="H53" t="n">
+        <v>40667275.06</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CEPU.xlsx
+++ b/backend/src/excel_handler/files/CEPU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>720092.34</v>
       </c>
+      <c r="I2" t="n">
+        <v>641682.17</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,6 +533,9 @@
       <c r="H3" t="n">
         <v>1164135.05</v>
       </c>
+      <c r="I3" t="n">
+        <v>1157915.09</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -553,6 +564,9 @@
       <c r="H4" t="n">
         <v>150839.67</v>
       </c>
+      <c r="I4" t="n">
+        <v>150896.76</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -581,6 +595,9 @@
       <c r="H5" t="n">
         <v>246556.89</v>
       </c>
+      <c r="I5" t="n">
+        <v>246484.07</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -609,6 +626,9 @@
       <c r="H6" t="n">
         <v>534881.4</v>
       </c>
+      <c r="I6" t="n">
+        <v>531420.83</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -637,6 +657,9 @@
       <c r="H7" t="n">
         <v>1279875.03</v>
       </c>
+      <c r="I7" t="n">
+        <v>1273012.65</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -665,6 +688,9 @@
       <c r="H8" t="n">
         <v>643782.35</v>
       </c>
+      <c r="I8" t="n">
+        <v>640319.09</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -693,6 +719,9 @@
       <c r="H9" t="n">
         <v>27041.92</v>
       </c>
+      <c r="I9" t="n">
+        <v>26909.02</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -721,6 +750,9 @@
       <c r="H10" t="n">
         <v>900520.3199999999</v>
       </c>
+      <c r="I10" t="n">
+        <v>899076.4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -749,6 +781,9 @@
       <c r="H11" t="n">
         <v>37539.37</v>
       </c>
+      <c r="I11" t="n">
+        <v>37295.63</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -777,6 +812,9 @@
       <c r="H12" t="n">
         <v>11612.59</v>
       </c>
+      <c r="I12" t="n">
+        <v>11555.65</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -805,6 +843,9 @@
       <c r="H13" t="n">
         <v>29191.55</v>
       </c>
+      <c r="I13" t="n">
+        <v>29011.36</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -833,6 +874,9 @@
       <c r="H14" t="n">
         <v>1191588.98</v>
       </c>
+      <c r="I14" t="n">
+        <v>1172593.39</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -861,6 +905,9 @@
       <c r="H15" t="n">
         <v>298164.31</v>
       </c>
+      <c r="I15" t="n">
+        <v>296580.92</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -889,6 +936,9 @@
       <c r="H16" t="n">
         <v>509756.51</v>
       </c>
+      <c r="I16" t="n">
+        <v>507127.61</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -916,6 +966,9 @@
       </c>
       <c r="H17" t="n">
         <v>2006640.74</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1990822.32</v>
       </c>
     </row>
     <row r="18">
@@ -943,6 +996,9 @@
       <c r="H18" t="n">
         <v>2237564.42</v>
       </c>
+      <c r="I18" t="n">
+        <v>2226040.84</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -969,6 +1025,9 @@
       <c r="H19" t="n">
         <v>845813.42</v>
       </c>
+      <c r="I19" t="n">
+        <v>841524.6800000001</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -995,6 +1054,9 @@
       <c r="H20" t="n">
         <v>237375.61</v>
       </c>
+      <c r="I20" t="n">
+        <v>237320.81</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1021,6 +1083,9 @@
       <c r="H21" t="n">
         <v>7510.74</v>
       </c>
+      <c r="I21" t="n">
+        <v>7491.54</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1047,6 +1112,9 @@
       <c r="H22" t="n">
         <v>16005.35</v>
       </c>
+      <c r="I22" t="n">
+        <v>15999.59</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1073,6 +1141,9 @@
       <c r="H23" t="n">
         <v>1676274.92</v>
       </c>
+      <c r="I23" t="n">
+        <v>1675888.8</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1099,6 +1170,9 @@
       <c r="H24" t="n">
         <v>1990492.2</v>
       </c>
+      <c r="I24" t="n">
+        <v>1989878.93</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1125,6 +1199,9 @@
       <c r="H25" t="n">
         <v>698232.0600000001</v>
       </c>
+      <c r="I25" t="n">
+        <v>698094.12</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1151,6 +1228,9 @@
       <c r="H26" t="n">
         <v>958670.87</v>
       </c>
+      <c r="I26" t="n">
+        <v>901085.1899999999</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1177,6 +1257,9 @@
       <c r="H27" t="n">
         <v>869552.95</v>
       </c>
+      <c r="I27" t="n">
+        <v>852779.51</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1203,6 +1286,9 @@
       <c r="H28" t="n">
         <v>1460812.27</v>
       </c>
+      <c r="I28" t="n">
+        <v>1455599.45</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1231,6 +1317,9 @@
       <c r="H29" t="n">
         <v>705674.21</v>
       </c>
+      <c r="I29" t="n">
+        <v>706252</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1259,6 +1348,9 @@
       <c r="H30" t="n">
         <v>99464.16</v>
       </c>
+      <c r="I30" t="n">
+        <v>98936.82000000001</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1287,6 +1379,9 @@
       <c r="H31" t="n">
         <v>6798202.69</v>
       </c>
+      <c r="I31" t="n">
+        <v>6798921.76</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1315,6 +1410,9 @@
       <c r="H32" t="n">
         <v>118300.97</v>
       </c>
+      <c r="I32" t="n">
+        <v>117520.18</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1343,6 +1441,9 @@
       <c r="H33" t="n">
         <v>24317.57</v>
       </c>
+      <c r="I33" t="n">
+        <v>24220.1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1371,6 +1472,9 @@
       <c r="H34" t="n">
         <v>468496.22</v>
       </c>
+      <c r="I34" t="n">
+        <v>405823.27</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1399,6 +1503,9 @@
       <c r="H35" t="n">
         <v>865147.42</v>
       </c>
+      <c r="I35" t="n">
+        <v>861225.48</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1427,6 +1534,9 @@
       <c r="H36" t="n">
         <v>200887.38</v>
       </c>
+      <c r="I36" t="n">
+        <v>200218.76</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1455,6 +1565,9 @@
       <c r="H37" t="n">
         <v>40281.54</v>
       </c>
+      <c r="I37" t="n">
+        <v>40068.79</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1483,6 +1596,9 @@
       <c r="H38" t="n">
         <v>204992.85</v>
       </c>
+      <c r="I38" t="n">
+        <v>217941.59</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1511,6 +1627,9 @@
       <c r="H39" t="n">
         <v>102401.15</v>
       </c>
+      <c r="I39" t="n">
+        <v>101990.42</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1538,6 +1657,9 @@
       </c>
       <c r="H40" t="n">
         <v>92270.13</v>
+      </c>
+      <c r="I40" t="n">
+        <v>91726</v>
       </c>
     </row>
     <row r="41">
@@ -1565,6 +1687,9 @@
       <c r="H41" t="n">
         <v>388604.25</v>
       </c>
+      <c r="I41" t="n">
+        <v>386515.9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1593,6 +1718,9 @@
       <c r="H42" t="n">
         <v>756271.4300000001</v>
       </c>
+      <c r="I42" t="n">
+        <v>751718.6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1621,6 +1749,9 @@
       <c r="H43" t="n">
         <v>230550.27</v>
       </c>
+      <c r="I43" t="n">
+        <v>229505.01</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1649,6 +1780,9 @@
       <c r="H44" t="n">
         <v>354091.77</v>
       </c>
+      <c r="I44" t="n">
+        <v>352509.86</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1677,6 +1811,9 @@
       <c r="H45" t="n">
         <v>249622.66</v>
       </c>
+      <c r="I45" t="n">
+        <v>248545.87</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1705,6 +1842,9 @@
       <c r="H46" t="n">
         <v>1202953.82</v>
       </c>
+      <c r="I46" t="n">
+        <v>1219207.66</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1732,6 +1872,9 @@
       </c>
       <c r="H47" t="n">
         <v>2325697.34</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2308989.77</v>
       </c>
     </row>
     <row r="48">
@@ -1753,6 +1896,7 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1781,6 +1925,9 @@
       <c r="H49" t="n">
         <v>3704500.63</v>
       </c>
+      <c r="I49" t="n">
+        <v>3754398.73</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1809,6 +1956,9 @@
       <c r="H50" t="n">
         <v>833747</v>
       </c>
+      <c r="I50" t="n">
+        <v>843927.35</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1837,6 +1987,9 @@
       <c r="H51" t="n">
         <v>150275.77</v>
       </c>
+      <c r="I51" t="n">
+        <v>149490.9</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1865,6 +2018,9 @@
       <c r="H52" t="n">
         <v>829944.39</v>
       </c>
+      <c r="I52" t="n">
+        <v>824980.84</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1892,6 +2048,9 @@
       </c>
       <c r="H53" t="n">
         <v>40667275.06</v>
+      </c>
+      <c r="I53" t="n">
+        <v>40424061.24</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CEPU.xlsx
+++ b/backend/src/excel_handler/files/CEPU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>641682.17</v>
       </c>
+      <c r="J2" t="n">
+        <v>622514.28</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>1157915.09</v>
       </c>
+      <c r="J3" t="n">
+        <v>1157907.06</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -567,6 +578,9 @@
       <c r="I4" t="n">
         <v>150896.76</v>
       </c>
+      <c r="J4" t="n">
+        <v>150513.4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -598,6 +612,9 @@
       <c r="I5" t="n">
         <v>246484.07</v>
       </c>
+      <c r="J5" t="n">
+        <v>246559.98</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -629,6 +646,9 @@
       <c r="I6" t="n">
         <v>531420.83</v>
       </c>
+      <c r="J6" t="n">
+        <v>531628.42</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -660,6 +680,9 @@
       <c r="I7" t="n">
         <v>1273012.65</v>
       </c>
+      <c r="J7" t="n">
+        <v>1271792.54</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -691,6 +714,9 @@
       <c r="I8" t="n">
         <v>640319.09</v>
       </c>
+      <c r="J8" t="n">
+        <v>640229.26</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -722,6 +748,9 @@
       <c r="I9" t="n">
         <v>26909.02</v>
       </c>
+      <c r="J9" t="n">
+        <v>26954.56</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -753,6 +782,9 @@
       <c r="I10" t="n">
         <v>899076.4</v>
       </c>
+      <c r="J10" t="n">
+        <v>901230.27</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -784,6 +816,9 @@
       <c r="I11" t="n">
         <v>37295.63</v>
       </c>
+      <c r="J11" t="n">
+        <v>37256.05</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -815,6 +850,9 @@
       <c r="I12" t="n">
         <v>11555.65</v>
       </c>
+      <c r="J12" t="n">
+        <v>11552.82</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -846,6 +884,9 @@
       <c r="I13" t="n">
         <v>29011.36</v>
       </c>
+      <c r="J13" t="n">
+        <v>29003.88</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -877,6 +918,9 @@
       <c r="I14" t="n">
         <v>1172593.39</v>
       </c>
+      <c r="J14" t="n">
+        <v>1151784.11</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -908,6 +952,9 @@
       <c r="I15" t="n">
         <v>296580.92</v>
       </c>
+      <c r="J15" t="n">
+        <v>296537.2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -939,6 +986,9 @@
       <c r="I16" t="n">
         <v>507127.61</v>
       </c>
+      <c r="J16" t="n">
+        <v>507208.65</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -969,6 +1019,9 @@
       </c>
       <c r="I17" t="n">
         <v>1990822.32</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1972075.01</v>
       </c>
     </row>
     <row r="18">
@@ -999,6 +1052,9 @@
       <c r="I18" t="n">
         <v>2226040.84</v>
       </c>
+      <c r="J18" t="n">
+        <v>2181563.79</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1028,6 +1084,9 @@
       <c r="I19" t="n">
         <v>841524.6800000001</v>
       </c>
+      <c r="J19" t="n">
+        <v>841628.66</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1057,6 +1116,9 @@
       <c r="I20" t="n">
         <v>237320.81</v>
       </c>
+      <c r="J20" t="n">
+        <v>237590.16</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1086,6 +1148,9 @@
       <c r="I21" t="n">
         <v>7491.54</v>
       </c>
+      <c r="J21" t="n">
+        <v>7511.45</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1115,6 +1180,9 @@
       <c r="I22" t="n">
         <v>15999.59</v>
       </c>
+      <c r="J22" t="n">
+        <v>15985.94</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1144,6 +1212,9 @@
       <c r="I23" t="n">
         <v>1675888.8</v>
       </c>
+      <c r="J23" t="n">
+        <v>1675920.65</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1173,6 +1244,9 @@
       <c r="I24" t="n">
         <v>1989878.93</v>
       </c>
+      <c r="J24" t="n">
+        <v>1990329.51</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1202,6 +1276,9 @@
       <c r="I25" t="n">
         <v>698094.12</v>
       </c>
+      <c r="J25" t="n">
+        <v>698505.6800000001</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1231,6 +1308,9 @@
       <c r="I26" t="n">
         <v>901085.1899999999</v>
       </c>
+      <c r="J26" t="n">
+        <v>843868.28</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1260,6 +1340,9 @@
       <c r="I27" t="n">
         <v>852779.51</v>
       </c>
+      <c r="J27" t="n">
+        <v>791554.28</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1289,6 +1372,9 @@
       <c r="I28" t="n">
         <v>1455599.45</v>
       </c>
+      <c r="J28" t="n">
+        <v>1427709.71</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1320,6 +1406,9 @@
       <c r="I29" t="n">
         <v>706252</v>
       </c>
+      <c r="J29" t="n">
+        <v>705635.77</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1351,6 +1440,9 @@
       <c r="I30" t="n">
         <v>98936.82000000001</v>
       </c>
+      <c r="J30" t="n">
+        <v>98934.77</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1382,6 +1474,9 @@
       <c r="I31" t="n">
         <v>6798921.76</v>
       </c>
+      <c r="J31" t="n">
+        <v>6798636.06</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1413,6 +1508,9 @@
       <c r="I32" t="n">
         <v>117520.18</v>
       </c>
+      <c r="J32" t="n">
+        <v>117558.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1444,6 +1542,9 @@
       <c r="I33" t="n">
         <v>24220.1</v>
       </c>
+      <c r="J33" t="n">
+        <v>24190.32</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1475,6 +1576,9 @@
       <c r="I34" t="n">
         <v>405823.27</v>
       </c>
+      <c r="J34" t="n">
+        <v>400863.12</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1506,6 +1610,9 @@
       <c r="I35" t="n">
         <v>861225.48</v>
       </c>
+      <c r="J35" t="n">
+        <v>861331.6899999999</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1537,6 +1644,9 @@
       <c r="I36" t="n">
         <v>200218.76</v>
       </c>
+      <c r="J36" t="n">
+        <v>200006.39</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1568,6 +1678,9 @@
       <c r="I37" t="n">
         <v>40068.79</v>
       </c>
+      <c r="J37" t="n">
+        <v>40065.53</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1599,6 +1712,9 @@
       <c r="I38" t="n">
         <v>217941.59</v>
       </c>
+      <c r="J38" t="n">
+        <v>213458.21</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1630,6 +1746,9 @@
       <c r="I39" t="n">
         <v>101990.42</v>
       </c>
+      <c r="J39" t="n">
+        <v>101805.83</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1660,6 +1779,9 @@
       </c>
       <c r="I40" t="n">
         <v>91726</v>
+      </c>
+      <c r="J40" t="n">
+        <v>91832.77</v>
       </c>
     </row>
     <row r="41">
@@ -1690,6 +1812,9 @@
       <c r="I41" t="n">
         <v>386515.9</v>
       </c>
+      <c r="J41" t="n">
+        <v>387210.81</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1721,6 +1846,9 @@
       <c r="I42" t="n">
         <v>751718.6</v>
       </c>
+      <c r="J42" t="n">
+        <v>752014.3100000001</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1752,6 +1880,9 @@
       <c r="I43" t="n">
         <v>229505.01</v>
       </c>
+      <c r="J43" t="n">
+        <v>241478.04</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1783,6 +1914,9 @@
       <c r="I44" t="n">
         <v>352509.86</v>
       </c>
+      <c r="J44" t="n">
+        <v>352511.08</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1814,6 +1948,9 @@
       <c r="I45" t="n">
         <v>248545.87</v>
       </c>
+      <c r="J45" t="n">
+        <v>248696.97</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1845,6 +1982,9 @@
       <c r="I46" t="n">
         <v>1219207.66</v>
       </c>
+      <c r="J46" t="n">
+        <v>1219571.14</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1875,6 +2015,9 @@
       </c>
       <c r="I47" t="n">
         <v>2308989.77</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2317972.43</v>
       </c>
     </row>
     <row r="48">
@@ -1897,6 +2040,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1928,6 +2072,9 @@
       <c r="I49" t="n">
         <v>3754398.73</v>
       </c>
+      <c r="J49" t="n">
+        <v>3751332.58</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1959,6 +2106,9 @@
       <c r="I50" t="n">
         <v>843927.35</v>
       </c>
+      <c r="J50" t="n">
+        <v>845578.02</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1990,6 +2140,9 @@
       <c r="I51" t="n">
         <v>149490.9</v>
       </c>
+      <c r="J51" t="n">
+        <v>149496.07</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2021,6 +2174,9 @@
       <c r="I52" t="n">
         <v>824980.84</v>
       </c>
+      <c r="J52" t="n">
+        <v>820144.8199999999</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2051,6 +2207,9 @@
       </c>
       <c r="I53" t="n">
         <v>40424061.24</v>
+      </c>
+      <c r="J53" t="n">
+        <v>40187096.01</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CEPU.xlsx
+++ b/backend/src/excel_handler/files/CEPU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>622514.28</v>
       </c>
+      <c r="K2" t="n">
+        <v>622931.58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>1157907.06</v>
       </c>
+      <c r="K3" t="n">
+        <v>1190478.65</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,6 +592,9 @@
       <c r="J4" t="n">
         <v>150513.4</v>
       </c>
+      <c r="K4" t="n">
+        <v>150712.42</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -615,6 +629,9 @@
       <c r="J5" t="n">
         <v>246559.98</v>
       </c>
+      <c r="K5" t="n">
+        <v>249024.22</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -649,6 +666,9 @@
       <c r="J6" t="n">
         <v>531628.42</v>
       </c>
+      <c r="K6" t="n">
+        <v>531868.25</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -683,6 +703,9 @@
       <c r="J7" t="n">
         <v>1271792.54</v>
       </c>
+      <c r="K7" t="n">
+        <v>1169079.58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -717,6 +740,9 @@
       <c r="J8" t="n">
         <v>640229.26</v>
       </c>
+      <c r="K8" t="n">
+        <v>640337.5699999999</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -751,6 +777,9 @@
       <c r="J9" t="n">
         <v>26954.56</v>
       </c>
+      <c r="K9" t="n">
+        <v>22138.2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -785,6 +814,9 @@
       <c r="J10" t="n">
         <v>901230.27</v>
       </c>
+      <c r="K10" t="n">
+        <v>898985.15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -819,6 +851,9 @@
       <c r="J11" t="n">
         <v>37256.05</v>
       </c>
+      <c r="K11" t="n">
+        <v>4468.02</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -853,6 +888,9 @@
       <c r="J12" t="n">
         <v>11552.82</v>
       </c>
+      <c r="K12" t="n">
+        <v>11547.66</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -887,6 +925,9 @@
       <c r="J13" t="n">
         <v>29003.88</v>
       </c>
+      <c r="K13" t="n">
+        <v>29009.56</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -921,6 +962,9 @@
       <c r="J14" t="n">
         <v>1151784.11</v>
       </c>
+      <c r="K14" t="n">
+        <v>1151349.55</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -955,6 +999,9 @@
       <c r="J15" t="n">
         <v>296537.2</v>
       </c>
+      <c r="K15" t="n">
+        <v>296714.39</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -989,6 +1036,9 @@
       <c r="J16" t="n">
         <v>507208.65</v>
       </c>
+      <c r="K16" t="n">
+        <v>507186.53</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1022,6 +1072,9 @@
       </c>
       <c r="J17" t="n">
         <v>1972075.01</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1961067.67</v>
       </c>
     </row>
     <row r="18">
@@ -1055,6 +1108,9 @@
       <c r="J18" t="n">
         <v>2181563.79</v>
       </c>
+      <c r="K18" t="n">
+        <v>2180489.86</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1087,6 +1143,9 @@
       <c r="J19" t="n">
         <v>841628.66</v>
       </c>
+      <c r="K19" t="n">
+        <v>841746.7</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1119,6 +1178,9 @@
       <c r="J20" t="n">
         <v>237590.16</v>
       </c>
+      <c r="K20" t="n">
+        <v>237180.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1151,6 +1213,9 @@
       <c r="J21" t="n">
         <v>7511.45</v>
       </c>
+      <c r="K21" t="n">
+        <v>7502.17</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1183,6 +1248,9 @@
       <c r="J22" t="n">
         <v>15985.94</v>
       </c>
+      <c r="K22" t="n">
+        <v>15984.9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1215,6 +1283,9 @@
       <c r="J23" t="n">
         <v>1675920.65</v>
       </c>
+      <c r="K23" t="n">
+        <v>1644923.24</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1247,6 +1318,9 @@
       <c r="J24" t="n">
         <v>1990329.51</v>
       </c>
+      <c r="K24" t="n">
+        <v>1990007.09</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1279,6 +1353,9 @@
       <c r="J25" t="n">
         <v>698505.6800000001</v>
       </c>
+      <c r="K25" t="n">
+        <v>610882.37</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1311,6 +1388,9 @@
       <c r="J26" t="n">
         <v>843868.28</v>
       </c>
+      <c r="K26" t="n">
+        <v>791433.98</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1343,6 +1423,9 @@
       <c r="J27" t="n">
         <v>791554.28</v>
       </c>
+      <c r="K27" t="n">
+        <v>739711.36</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1375,6 +1458,9 @@
       <c r="J28" t="n">
         <v>1427709.71</v>
       </c>
+      <c r="K28" t="n">
+        <v>1422071.89</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1409,6 +1495,9 @@
       <c r="J29" t="n">
         <v>705635.77</v>
       </c>
+      <c r="K29" t="n">
+        <v>706489.34</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1443,6 +1532,9 @@
       <c r="J30" t="n">
         <v>98934.77</v>
       </c>
+      <c r="K30" t="n">
+        <v>98865.98</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1477,6 +1569,9 @@
       <c r="J31" t="n">
         <v>6798636.06</v>
       </c>
+      <c r="K31" t="n">
+        <v>6800246.97</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1511,6 +1606,9 @@
       <c r="J32" t="n">
         <v>117558.5</v>
       </c>
+      <c r="K32" t="n">
+        <v>117636.29</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1545,6 +1643,9 @@
       <c r="J33" t="n">
         <v>24190.32</v>
       </c>
+      <c r="K33" t="n">
+        <v>24228.85</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1579,6 +1680,9 @@
       <c r="J34" t="n">
         <v>400863.12</v>
       </c>
+      <c r="K34" t="n">
+        <v>380931.66</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1613,6 +1717,9 @@
       <c r="J35" t="n">
         <v>861331.6899999999</v>
       </c>
+      <c r="K35" t="n">
+        <v>846211.5699999999</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1647,6 +1754,9 @@
       <c r="J36" t="n">
         <v>200006.39</v>
       </c>
+      <c r="K36" t="n">
+        <v>200118.72</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1681,6 +1791,9 @@
       <c r="J37" t="n">
         <v>40065.53</v>
       </c>
+      <c r="K37" t="n">
+        <v>40058.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1715,6 +1828,9 @@
       <c r="J38" t="n">
         <v>213458.21</v>
       </c>
+      <c r="K38" t="n">
+        <v>195637.15</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1749,6 +1865,9 @@
       <c r="J39" t="n">
         <v>101805.83</v>
       </c>
+      <c r="K39" t="n">
+        <v>102029.67</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1782,6 +1901,9 @@
       </c>
       <c r="J40" t="n">
         <v>91832.77</v>
+      </c>
+      <c r="K40" t="n">
+        <v>91901.16</v>
       </c>
     </row>
     <row r="41">
@@ -1815,6 +1937,9 @@
       <c r="J41" t="n">
         <v>387210.81</v>
       </c>
+      <c r="K41" t="n">
+        <v>386960.18</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1849,6 +1974,9 @@
       <c r="J42" t="n">
         <v>752014.3100000001</v>
       </c>
+      <c r="K42" t="n">
+        <v>752019.62</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1883,6 +2011,9 @@
       <c r="J43" t="n">
         <v>241478.04</v>
       </c>
+      <c r="K43" t="n">
+        <v>226248.14</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1917,6 +2048,9 @@
       <c r="J44" t="n">
         <v>352511.08</v>
       </c>
+      <c r="K44" t="n">
+        <v>352917.97</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1951,6 +2085,9 @@
       <c r="J45" t="n">
         <v>248696.97</v>
       </c>
+      <c r="K45" t="n">
+        <v>248648.52</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1985,6 +2122,9 @@
       <c r="J46" t="n">
         <v>1219571.14</v>
       </c>
+      <c r="K46" t="n">
+        <v>1219621.89</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2018,6 +2158,9 @@
       </c>
       <c r="J47" t="n">
         <v>2317972.43</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2318550.52</v>
       </c>
     </row>
     <row r="48">
@@ -2041,6 +2184,7 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2075,6 +2219,9 @@
       <c r="J49" t="n">
         <v>3751332.58</v>
       </c>
+      <c r="K49" t="n">
+        <v>3754488.76</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2109,6 +2256,9 @@
       <c r="J50" t="n">
         <v>845578.02</v>
       </c>
+      <c r="K50" t="n">
+        <v>845471.83</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2143,6 +2293,9 @@
       <c r="J51" t="n">
         <v>149496.07</v>
       </c>
+      <c r="K51" t="n">
+        <v>149320.71</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2177,6 +2330,9 @@
       <c r="J52" t="n">
         <v>820144.8199999999</v>
       </c>
+      <c r="K52" t="n">
+        <v>811784.4399999999</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2210,6 +2366,9 @@
       </c>
       <c r="J53" t="n">
         <v>40187096.01</v>
+      </c>
+      <c r="K53" t="n">
+        <v>39777437.71</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CEPU.xlsx
+++ b/backend/src/excel_handler/files/CEPU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>622931.58</v>
       </c>
+      <c r="L2" t="n">
+        <v>520959.57</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>1190478.65</v>
       </c>
+      <c r="L3" t="n">
+        <v>1156546.05</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -595,6 +606,9 @@
       <c r="K4" t="n">
         <v>150712.42</v>
       </c>
+      <c r="L4" t="n">
+        <v>150780.51</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -632,6 +646,9 @@
       <c r="K5" t="n">
         <v>249024.22</v>
       </c>
+      <c r="L5" t="n">
+        <v>249013.38</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -669,6 +686,9 @@
       <c r="K6" t="n">
         <v>531868.25</v>
       </c>
+      <c r="L6" t="n">
+        <v>531479.92</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -706,6 +726,9 @@
       <c r="K7" t="n">
         <v>1169079.58</v>
       </c>
+      <c r="L7" t="n">
+        <v>1064165.57</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -743,6 +766,9 @@
       <c r="K8" t="n">
         <v>640337.5699999999</v>
       </c>
+      <c r="L8" t="n">
+        <v>640687.1899999999</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -780,6 +806,9 @@
       <c r="K9" t="n">
         <v>22138.2</v>
       </c>
+      <c r="L9" t="n">
+        <v>22197.79</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -817,6 +846,9 @@
       <c r="K10" t="n">
         <v>898985.15</v>
       </c>
+      <c r="L10" t="n">
+        <v>896680.8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -854,6 +886,9 @@
       <c r="K11" t="n">
         <v>4468.02</v>
       </c>
+      <c r="L11" t="n">
+        <v>4473.84</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -891,6 +926,9 @@
       <c r="K12" t="n">
         <v>11547.66</v>
       </c>
+      <c r="L12" t="n">
+        <v>11549.06</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -928,6 +966,9 @@
       <c r="K13" t="n">
         <v>29009.56</v>
       </c>
+      <c r="L13" t="n">
+        <v>28976.23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -965,6 +1006,9 @@
       <c r="K14" t="n">
         <v>1151349.55</v>
       </c>
+      <c r="L14" t="n">
+        <v>1112476.14</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1002,6 +1046,9 @@
       <c r="K15" t="n">
         <v>296714.39</v>
       </c>
+      <c r="L15" t="n">
+        <v>283517.04</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1039,6 +1086,9 @@
       <c r="K16" t="n">
         <v>507186.53</v>
       </c>
+      <c r="L16" t="n">
+        <v>507002.14</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1075,6 +1125,9 @@
       </c>
       <c r="K17" t="n">
         <v>1961067.67</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1955115.51</v>
       </c>
     </row>
     <row r="18">
@@ -1111,6 +1164,9 @@
       <c r="K18" t="n">
         <v>2180489.86</v>
       </c>
+      <c r="L18" t="n">
+        <v>2181904.79</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1146,6 +1202,9 @@
       <c r="K19" t="n">
         <v>841746.7</v>
       </c>
+      <c r="L19" t="n">
+        <v>841588.16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1181,6 +1240,9 @@
       <c r="K20" t="n">
         <v>237180.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>237277.84</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1216,6 +1278,9 @@
       <c r="K21" t="n">
         <v>7502.17</v>
       </c>
+      <c r="L21" t="n">
+        <v>7505.24</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1251,6 +1316,9 @@
       <c r="K22" t="n">
         <v>15984.9</v>
       </c>
+      <c r="L22" t="n">
+        <v>15996.62</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1286,6 +1354,9 @@
       <c r="K23" t="n">
         <v>1644923.24</v>
       </c>
+      <c r="L23" t="n">
+        <v>1477622.2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1321,6 +1392,9 @@
       <c r="K24" t="n">
         <v>1990007.09</v>
       </c>
+      <c r="L24" t="n">
+        <v>1991094.69</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1356,6 +1430,9 @@
       <c r="K25" t="n">
         <v>610882.37</v>
       </c>
+      <c r="L25" t="n">
+        <v>609303.12</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1391,6 +1468,9 @@
       <c r="K26" t="n">
         <v>791433.98</v>
       </c>
+      <c r="L26" t="n">
+        <v>769269.48</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1426,6 +1506,9 @@
       <c r="K27" t="n">
         <v>739711.36</v>
       </c>
+      <c r="L27" t="n">
+        <v>730718.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1461,6 +1544,9 @@
       <c r="K28" t="n">
         <v>1422071.89</v>
       </c>
+      <c r="L28" t="n">
+        <v>1392491.7</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1498,6 +1584,9 @@
       <c r="K29" t="n">
         <v>706489.34</v>
       </c>
+      <c r="L29" t="n">
+        <v>696162.4</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1535,6 +1624,9 @@
       <c r="K30" t="n">
         <v>98865.98</v>
       </c>
+      <c r="L30" t="n">
+        <v>99096.11</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1572,6 +1664,9 @@
       <c r="K31" t="n">
         <v>6800246.97</v>
       </c>
+      <c r="L31" t="n">
+        <v>6799236.28</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1609,6 +1704,9 @@
       <c r="K32" t="n">
         <v>117636.29</v>
       </c>
+      <c r="L32" t="n">
+        <v>117634.45</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1646,6 +1744,9 @@
       <c r="K33" t="n">
         <v>24228.85</v>
       </c>
+      <c r="L33" t="n">
+        <v>24215.09</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1683,6 +1784,9 @@
       <c r="K34" t="n">
         <v>380931.66</v>
       </c>
+      <c r="L34" t="n">
+        <v>340905.82</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1720,6 +1824,9 @@
       <c r="K35" t="n">
         <v>846211.5699999999</v>
       </c>
+      <c r="L35" t="n">
+        <v>785417.5600000001</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1757,6 +1864,9 @@
       <c r="K36" t="n">
         <v>200118.72</v>
       </c>
+      <c r="L36" t="n">
+        <v>198729.14</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1794,6 +1904,9 @@
       <c r="K37" t="n">
         <v>40058.95</v>
       </c>
+      <c r="L37" t="n">
+        <v>40057.49</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1831,6 +1944,9 @@
       <c r="K38" t="n">
         <v>195637.15</v>
       </c>
+      <c r="L38" t="n">
+        <v>187845.1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1868,6 +1984,9 @@
       <c r="K39" t="n">
         <v>102029.67</v>
       </c>
+      <c r="L39" t="n">
+        <v>101943.12</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1904,6 +2023,9 @@
       </c>
       <c r="K40" t="n">
         <v>91901.16</v>
+      </c>
+      <c r="L40" t="n">
+        <v>91747.39999999999</v>
       </c>
     </row>
     <row r="41">
@@ -1940,6 +2062,9 @@
       <c r="K41" t="n">
         <v>386960.18</v>
       </c>
+      <c r="L41" t="n">
+        <v>387117.06</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1977,6 +2102,9 @@
       <c r="K42" t="n">
         <v>752019.62</v>
       </c>
+      <c r="L42" t="n">
+        <v>751657.89</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2014,6 +2142,9 @@
       <c r="K43" t="n">
         <v>226248.14</v>
       </c>
+      <c r="L43" t="n">
+        <v>246941.65</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2051,6 +2182,9 @@
       <c r="K44" t="n">
         <v>352917.97</v>
       </c>
+      <c r="L44" t="n">
+        <v>352318.42</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2088,6 +2222,9 @@
       <c r="K45" t="n">
         <v>248648.52</v>
       </c>
+      <c r="L45" t="n">
+        <v>248392.08</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2125,6 +2262,9 @@
       <c r="K46" t="n">
         <v>1219621.89</v>
       </c>
+      <c r="L46" t="n">
+        <v>1167398.1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2161,6 +2301,9 @@
       </c>
       <c r="K47" t="n">
         <v>2318550.52</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2318143.71</v>
       </c>
     </row>
     <row r="48">
@@ -2185,6 +2328,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2222,6 +2366,9 @@
       <c r="K49" t="n">
         <v>3754488.76</v>
       </c>
+      <c r="L49" t="n">
+        <v>3752990.07</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2259,6 +2406,9 @@
       <c r="K50" t="n">
         <v>845471.83</v>
       </c>
+      <c r="L50" t="n">
+        <v>844480.22</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2296,6 +2446,9 @@
       <c r="K51" t="n">
         <v>149320.71</v>
       </c>
+      <c r="L51" t="n">
+        <v>149435.92</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2333,6 +2486,9 @@
       <c r="K52" t="n">
         <v>811784.4399999999</v>
       </c>
+      <c r="L52" t="n">
+        <v>797801.1899999999</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2369,6 +2525,9 @@
       </c>
       <c r="K53" t="n">
         <v>39777437.71</v>
+      </c>
+      <c r="L53" t="n">
+        <v>39092258.16</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CEPU.xlsx
+++ b/backend/src/excel_handler/files/CEPU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>520959.57</v>
       </c>
+      <c r="M2" t="n">
+        <v>473310.12</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,6 +577,9 @@
       <c r="L3" t="n">
         <v>1156546.05</v>
       </c>
+      <c r="M3" t="n">
+        <v>1246591.88</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -609,6 +620,9 @@
       <c r="L4" t="n">
         <v>150780.51</v>
       </c>
+      <c r="M4" t="n">
+        <v>150986.86</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -649,6 +663,9 @@
       <c r="L5" t="n">
         <v>249013.38</v>
       </c>
+      <c r="M5" t="n">
+        <v>249033.22</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -689,6 +706,9 @@
       <c r="L6" t="n">
         <v>531479.92</v>
       </c>
+      <c r="M6" t="n">
+        <v>531378.1800000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -729,6 +749,9 @@
       <c r="L7" t="n">
         <v>1064165.57</v>
       </c>
+      <c r="M7" t="n">
+        <v>1064183.44</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -769,6 +792,9 @@
       <c r="L8" t="n">
         <v>640687.1899999999</v>
       </c>
+      <c r="M8" t="n">
+        <v>640678.42</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -809,6 +835,9 @@
       <c r="L9" t="n">
         <v>22197.79</v>
       </c>
+      <c r="M9" t="n">
+        <v>22169.11</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -849,6 +878,9 @@
       <c r="L10" t="n">
         <v>896680.8</v>
       </c>
+      <c r="M10" t="n">
+        <v>898778.41</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -889,6 +921,9 @@
       <c r="L11" t="n">
         <v>4473.84</v>
       </c>
+      <c r="M11" t="n">
+        <v>4471.02</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -929,6 +964,9 @@
       <c r="L12" t="n">
         <v>11549.06</v>
       </c>
+      <c r="M12" t="n">
+        <v>11556.2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -969,6 +1007,9 @@
       <c r="L13" t="n">
         <v>28976.23</v>
       </c>
+      <c r="M13" t="n">
+        <v>29026.27</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1009,6 +1050,9 @@
       <c r="L14" t="n">
         <v>1112476.14</v>
       </c>
+      <c r="M14" t="n">
+        <v>1112113.93</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1049,6 +1093,9 @@
       <c r="L15" t="n">
         <v>283517.04</v>
       </c>
+      <c r="M15" t="n">
+        <v>283507.24</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1089,6 +1136,9 @@
       <c r="L16" t="n">
         <v>507002.14</v>
       </c>
+      <c r="M16" t="n">
+        <v>507123.02</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1128,6 +1178,9 @@
       </c>
       <c r="L17" t="n">
         <v>1955115.51</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1953302.67</v>
       </c>
     </row>
     <row r="18">
@@ -1167,6 +1220,9 @@
       <c r="L18" t="n">
         <v>2181904.79</v>
       </c>
+      <c r="M18" t="n">
+        <v>2082781.91</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1205,6 +1261,9 @@
       <c r="L19" t="n">
         <v>841588.16</v>
       </c>
+      <c r="M19" t="n">
+        <v>841323.38</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1243,6 +1302,9 @@
       <c r="L20" t="n">
         <v>237277.84</v>
       </c>
+      <c r="M20" t="n">
+        <v>187404.07</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1281,6 +1343,9 @@
       <c r="L21" t="n">
         <v>7505.24</v>
       </c>
+      <c r="M21" t="n">
+        <v>7508.64</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1319,6 +1384,9 @@
       <c r="L22" t="n">
         <v>15996.62</v>
       </c>
+      <c r="M22" t="n">
+        <v>15985.67</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1357,6 +1425,9 @@
       <c r="L23" t="n">
         <v>1477622.2</v>
       </c>
+      <c r="M23" t="n">
+        <v>1377330.13</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1395,6 +1466,9 @@
       <c r="L24" t="n">
         <v>1991094.69</v>
       </c>
+      <c r="M24" t="n">
+        <v>1889967.69</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1433,6 +1507,9 @@
       <c r="L25" t="n">
         <v>609303.12</v>
       </c>
+      <c r="M25" t="n">
+        <v>609084.29</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1471,6 +1548,9 @@
       <c r="L26" t="n">
         <v>769269.48</v>
       </c>
+      <c r="M26" t="n">
+        <v>769197.47</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1509,6 +1589,9 @@
       <c r="L27" t="n">
         <v>730718.5</v>
       </c>
+      <c r="M27" t="n">
+        <v>731818.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1547,6 +1630,9 @@
       <c r="L28" t="n">
         <v>1392491.7</v>
       </c>
+      <c r="M28" t="n">
+        <v>1355944.14</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1587,6 +1673,9 @@
       <c r="L29" t="n">
         <v>696162.4</v>
       </c>
+      <c r="M29" t="n">
+        <v>695684.49</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1627,6 +1716,9 @@
       <c r="L30" t="n">
         <v>99096.11</v>
       </c>
+      <c r="M30" t="n">
+        <v>99071.84</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1667,6 +1759,9 @@
       <c r="L31" t="n">
         <v>6799236.28</v>
       </c>
+      <c r="M31" t="n">
+        <v>6799397.29</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1707,6 +1802,9 @@
       <c r="L32" t="n">
         <v>117634.45</v>
       </c>
+      <c r="M32" t="n">
+        <v>117593.97</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1747,6 +1845,9 @@
       <c r="L33" t="n">
         <v>24215.09</v>
       </c>
+      <c r="M33" t="n">
+        <v>24186.65</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1787,6 +1888,9 @@
       <c r="L34" t="n">
         <v>340905.82</v>
       </c>
+      <c r="M34" t="n">
+        <v>341076.03</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1827,6 +1931,9 @@
       <c r="L35" t="n">
         <v>785417.5600000001</v>
       </c>
+      <c r="M35" t="n">
+        <v>786283.78</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1867,6 +1974,9 @@
       <c r="L36" t="n">
         <v>198729.14</v>
       </c>
+      <c r="M36" t="n">
+        <v>175042.79</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1907,6 +2017,9 @@
       <c r="L37" t="n">
         <v>40057.49</v>
       </c>
+      <c r="M37" t="n">
+        <v>40058</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1947,6 +2060,9 @@
       <c r="L38" t="n">
         <v>187845.1</v>
       </c>
+      <c r="M38" t="n">
+        <v>187546.69</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1987,6 +2103,9 @@
       <c r="L39" t="n">
         <v>101943.12</v>
       </c>
+      <c r="M39" t="n">
+        <v>101884.54</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2026,6 +2145,9 @@
       </c>
       <c r="L40" t="n">
         <v>91747.39999999999</v>
+      </c>
+      <c r="M40" t="n">
+        <v>91839.47</v>
       </c>
     </row>
     <row r="41">
@@ -2065,6 +2187,9 @@
       <c r="L41" t="n">
         <v>387117.06</v>
       </c>
+      <c r="M41" t="n">
+        <v>387037.32</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2105,6 +2230,9 @@
       <c r="L42" t="n">
         <v>751657.89</v>
       </c>
+      <c r="M42" t="n">
+        <v>751953.34</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2145,6 +2273,9 @@
       <c r="L43" t="n">
         <v>246941.65</v>
       </c>
+      <c r="M43" t="n">
+        <v>246827.82</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2185,6 +2316,9 @@
       <c r="L44" t="n">
         <v>352318.42</v>
       </c>
+      <c r="M44" t="n">
+        <v>352265.39</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2225,6 +2359,9 @@
       <c r="L45" t="n">
         <v>248392.08</v>
       </c>
+      <c r="M45" t="n">
+        <v>241655.89</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2265,6 +2402,9 @@
       <c r="L46" t="n">
         <v>1167398.1</v>
       </c>
+      <c r="M46" t="n">
+        <v>1167576.43</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2304,6 +2444,9 @@
       </c>
       <c r="L47" t="n">
         <v>2318143.71</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2316647.25</v>
       </c>
     </row>
     <row r="48">
@@ -2329,6 +2472,7 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2369,6 +2513,9 @@
       <c r="L49" t="n">
         <v>3752990.07</v>
       </c>
+      <c r="M49" t="n">
+        <v>3755338.8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2409,6 +2556,9 @@
       <c r="L50" t="n">
         <v>844480.22</v>
       </c>
+      <c r="M50" t="n">
+        <v>844109.21</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2449,6 +2599,9 @@
       <c r="L51" t="n">
         <v>149435.92</v>
       </c>
+      <c r="M51" t="n">
+        <v>149337.82</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2489,6 +2642,9 @@
       <c r="L52" t="n">
         <v>797801.1899999999</v>
       </c>
+      <c r="M52" t="n">
+        <v>790183.08</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2528,6 +2684,9 @@
       </c>
       <c r="L53" t="n">
         <v>39092258.16</v>
+      </c>
+      <c r="M53" t="n">
+        <v>38718970.69</v>
       </c>
     </row>
   </sheetData>
